--- a/DSA/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/DSA/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\uiprojects\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8CE04F-E3B1-436F-80A4-4562FF8E41F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EF9699-EB64-4016-BE7C-6E75CE29D539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{DC8CE150-FB6B-499E-B0F3-285E26AC2C79}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{AF1B22C3-B8EE-4520-A29B-D72C2F9DF42C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{58B874E0-02BB-451B-88BF-92F62B1BD2F4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{A8CCA5CD-AF7D-4B4E-914E-0AC58190EB15}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{58B874E0-02BB-451B-88BF-92F62B1BD2F4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{AF1B22C3-B8EE-4520-A29B-D72C2F9DF42C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{DC8CE150-FB6B-499E-B0F3-285E26AC2C79}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2520,16 +2520,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2541,6 +2531,16 @@
     </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2763,8 +2763,8 @@
   </sheetPr>
   <dimension ref="A1:Z919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="B416" sqref="B416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2776,12 +2776,12 @@
     <col min="7" max="7" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2806,12 +2806,12 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2835,10 +2835,10 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2865,10 +2865,10 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2893,7 +2893,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2923,7 +2923,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2955,14 +2955,14 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="46" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2"/>
@@ -2989,14 +2989,14 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3021,7 +3021,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
@@ -3049,7 +3049,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3077,7 +3077,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -3117,14 +3117,14 @@
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="39" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="46">
+      <c r="E12" s="42">
         <v>44949</v>
       </c>
       <c r="F12" s="2"/>
@@ -3153,14 +3153,14 @@
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="46">
+      <c r="E13" s="42">
         <v>44949</v>
       </c>
       <c r="F13" s="2"/>
@@ -3185,11 +3185,11 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="41" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -3221,11 +3221,11 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -3255,11 +3255,11 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -3289,7 +3289,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -3327,14 +3327,14 @@
       <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="40" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="46">
+      <c r="E18" s="42">
         <v>44949</v>
       </c>
       <c r="F18" s="2"/>
@@ -3363,7 +3363,7 @@
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="40" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -3375,7 +3375,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="46">
+      <c r="J19" s="42">
         <v>44949</v>
       </c>
       <c r="K19" s="2"/>
@@ -3399,14 +3399,14 @@
       <c r="A20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="41" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="46">
+      <c r="E20" s="42">
         <v>44949</v>
       </c>
       <c r="F20" s="2"/>
@@ -3431,7 +3431,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>14</v>
       </c>
@@ -3465,7 +3465,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>14</v>
       </c>
@@ -3501,7 +3501,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>14</v>
       </c>
@@ -3535,7 +3535,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>14</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>14</v>
       </c>
@@ -3603,7 +3603,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>14</v>
       </c>
@@ -3637,7 +3637,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>14</v>
       </c>
@@ -3671,7 +3671,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>14</v>
       </c>
@@ -3707,7 +3707,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>14</v>
       </c>
@@ -3741,7 +3741,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>14</v>
       </c>
@@ -3775,7 +3775,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>14</v>
       </c>
@@ -3809,7 +3809,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>14</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>14</v>
       </c>
@@ -3877,7 +3877,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>14</v>
       </c>
@@ -3911,7 +3911,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>14</v>
       </c>
@@ -3945,7 +3945,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>14</v>
       </c>
@@ -3979,7 +3979,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>14</v>
       </c>
@@ -4013,7 +4013,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
@@ -4041,7 +4041,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
@@ -4069,7 +4069,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>63</v>
       </c>
@@ -4103,7 +4103,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>63</v>
       </c>
@@ -4137,7 +4137,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>63</v>
       </c>
@@ -4173,7 +4173,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>63</v>
       </c>
@@ -4207,7 +4207,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>63</v>
       </c>
@@ -4241,7 +4241,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>63</v>
       </c>
@@ -4275,7 +4275,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>63</v>
       </c>
@@ -4309,7 +4309,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>63</v>
       </c>
@@ -4343,7 +4343,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>63</v>
       </c>
@@ -4377,7 +4377,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>63</v>
       </c>
@@ -4411,7 +4411,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>63</v>
       </c>
@@ -4445,7 +4445,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>63</v>
       </c>
@@ -4479,7 +4479,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>63</v>
       </c>
@@ -4513,7 +4513,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>63</v>
       </c>
@@ -4547,7 +4547,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>63</v>
       </c>
@@ -4581,7 +4581,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>63</v>
       </c>
@@ -4615,7 +4615,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>63</v>
       </c>
@@ -4649,7 +4649,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>63</v>
       </c>
@@ -4683,7 +4683,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>63</v>
       </c>
@@ -4717,7 +4717,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>63</v>
       </c>
@@ -4751,7 +4751,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>63</v>
       </c>
@@ -4785,7 +4785,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>63</v>
       </c>
@@ -4821,7 +4821,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="16"/>
       <c r="B62" s="17"/>
       <c r="C62" s="18"/>
@@ -4849,7 +4849,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="16"/>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
@@ -4877,7 +4877,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>107</v>
       </c>
@@ -4911,7 +4911,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>107</v>
       </c>
@@ -4945,7 +4945,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>107</v>
       </c>
@@ -4979,7 +4979,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>107</v>
       </c>
@@ -5013,7 +5013,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>107</v>
       </c>
@@ -5047,7 +5047,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
         <v>107</v>
       </c>
@@ -5083,7 +5083,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
         <v>107</v>
       </c>
@@ -5117,7 +5117,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>107</v>
       </c>
@@ -5151,7 +5151,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
         <v>107</v>
       </c>
@@ -5185,7 +5185,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>107</v>
       </c>
@@ -5219,7 +5219,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" s="19"/>
       <c r="B74" s="17"/>
       <c r="C74" s="18"/>
@@ -5247,7 +5247,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="19"/>
       <c r="B75" s="17"/>
       <c r="C75" s="18"/>
@@ -5275,7 +5275,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="20" t="s">
         <v>128</v>
       </c>
@@ -5309,7 +5309,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="20" t="s">
         <v>128</v>
       </c>
@@ -5343,7 +5343,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="20" t="s">
         <v>128</v>
       </c>
@@ -5377,7 +5377,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" s="20" t="s">
         <v>128</v>
       </c>
@@ -5411,7 +5411,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A80" s="20" t="s">
         <v>128</v>
       </c>
@@ -5445,7 +5445,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A81" s="20" t="s">
         <v>128</v>
       </c>
@@ -5479,7 +5479,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A82" s="22" t="s">
         <v>128</v>
       </c>
@@ -5513,7 +5513,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="22" t="s">
         <v>128</v>
       </c>
@@ -5547,7 +5547,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A84" s="22" t="s">
         <v>128</v>
       </c>
@@ -5580,7 +5580,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A85" s="22" t="s">
         <v>128</v>
       </c>
@@ -5613,7 +5613,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A86" s="22" t="s">
         <v>128</v>
       </c>
@@ -5647,7 +5647,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A87" s="22" t="s">
         <v>128</v>
       </c>
@@ -5681,7 +5681,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A88" s="22" t="s">
         <v>128</v>
       </c>
@@ -5715,7 +5715,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A89" s="22" t="s">
         <v>128</v>
       </c>
@@ -5749,7 +5749,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" s="22" t="s">
         <v>128</v>
       </c>
@@ -5783,7 +5783,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A91" s="22" t="s">
         <v>128</v>
       </c>
@@ -5817,7 +5817,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A92" s="24" t="s">
         <v>128</v>
       </c>
@@ -5851,7 +5851,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A93" s="24" t="s">
         <v>128</v>
       </c>
@@ -5885,7 +5885,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A94" s="24" t="s">
         <v>128</v>
       </c>
@@ -5919,7 +5919,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A95" s="24" t="s">
         <v>128</v>
       </c>
@@ -5953,7 +5953,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A96" s="24" t="s">
         <v>128</v>
       </c>
@@ -5987,7 +5987,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A97" s="24" t="s">
         <v>128</v>
       </c>
@@ -6021,7 +6021,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A98" s="24" t="s">
         <v>128</v>
       </c>
@@ -6055,7 +6055,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="19"/>
       <c r="B99" s="17"/>
       <c r="C99" s="18"/>
@@ -6083,7 +6083,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A100" s="19"/>
       <c r="B100" s="17"/>
       <c r="C100" s="18"/>
@@ -6111,7 +6111,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
         <v>171</v>
       </c>
@@ -6145,7 +6145,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A102" s="8" t="s">
         <v>171</v>
       </c>
@@ -6179,7 +6179,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
         <v>171</v>
       </c>
@@ -6213,7 +6213,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>171</v>
       </c>
@@ -6247,7 +6247,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
         <v>171</v>
       </c>
@@ -6281,7 +6281,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="s">
         <v>171</v>
       </c>
@@ -6315,7 +6315,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
         <v>171</v>
       </c>
@@ -6349,7 +6349,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
         <v>171</v>
       </c>
@@ -6383,7 +6383,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
         <v>171</v>
       </c>
@@ -6416,7 +6416,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
         <v>171</v>
       </c>
@@ -6449,7 +6449,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
         <v>171</v>
       </c>
@@ -6482,7 +6482,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
         <v>171</v>
       </c>
@@ -6513,7 +6513,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
         <v>171</v>
       </c>
@@ -6546,7 +6546,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A114" s="9" t="s">
         <v>171</v>
       </c>
@@ -6579,7 +6579,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
         <v>171</v>
       </c>
@@ -6613,7 +6613,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
         <v>171</v>
       </c>
@@ -6647,7 +6647,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
         <v>171</v>
       </c>
@@ -6681,7 +6681,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
         <v>171</v>
       </c>
@@ -6715,7 +6715,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
         <v>171</v>
       </c>
@@ -6747,7 +6747,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
         <v>171</v>
       </c>
@@ -6779,7 +6779,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
         <v>171</v>
       </c>
@@ -6811,7 +6811,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A122" s="19"/>
       <c r="B122" s="17"/>
       <c r="C122" s="18"/>
@@ -6837,7 +6837,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A123" s="19"/>
       <c r="B123" s="17"/>
       <c r="C123" s="18"/>
@@ -6863,7 +6863,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>205</v>
       </c>
@@ -6896,7 +6896,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>205</v>
       </c>
@@ -6929,7 +6929,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>205</v>
       </c>
@@ -6962,7 +6962,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>205</v>
       </c>
@@ -6995,7 +6995,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>205</v>
       </c>
@@ -7028,7 +7028,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>205</v>
       </c>
@@ -7061,7 +7061,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>205</v>
       </c>
@@ -7094,7 +7094,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A131" s="8" t="s">
         <v>205</v>
       </c>
@@ -7127,7 +7127,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
         <v>205</v>
       </c>
@@ -7160,7 +7160,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
         <v>205</v>
       </c>
@@ -7193,7 +7193,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
         <v>205</v>
       </c>
@@ -7226,7 +7226,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A135" s="8" t="s">
         <v>205</v>
       </c>
@@ -7260,7 +7260,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A136" s="8" t="s">
         <v>205</v>
       </c>
@@ -7294,7 +7294,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A137" s="8" t="s">
         <v>205</v>
       </c>
@@ -7328,7 +7328,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
         <v>205</v>
       </c>
@@ -7362,7 +7362,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A139" s="8" t="s">
         <v>205</v>
       </c>
@@ -7396,7 +7396,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
         <v>205</v>
       </c>
@@ -7430,7 +7430,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A141" s="8" t="s">
         <v>205</v>
       </c>
@@ -7464,7 +7464,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A142" s="8" t="s">
         <v>205</v>
       </c>
@@ -7498,7 +7498,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A143" s="9" t="s">
         <v>205</v>
       </c>
@@ -7532,7 +7532,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="9" t="s">
         <v>205</v>
       </c>
@@ -7568,7 +7568,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A145" s="9" t="s">
         <v>205</v>
       </c>
@@ -7604,7 +7604,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="s">
         <v>205</v>
       </c>
@@ -7638,7 +7638,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A147" s="9" t="s">
         <v>205</v>
       </c>
@@ -7672,7 +7672,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="s">
         <v>205</v>
       </c>
@@ -7706,7 +7706,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A149" s="9" t="s">
         <v>205</v>
       </c>
@@ -7740,7 +7740,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A150" s="19"/>
       <c r="B150" s="17"/>
       <c r="C150" s="18"/>
@@ -7768,7 +7768,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" s="19"/>
       <c r="B151" s="17" t="s">
         <v>254</v>
@@ -7798,7 +7798,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>255</v>
       </c>
@@ -7832,7 +7832,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>255</v>
       </c>
@@ -7866,7 +7866,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>255</v>
       </c>
@@ -7900,7 +7900,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>255</v>
       </c>
@@ -7934,7 +7934,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>255</v>
       </c>
@@ -7968,7 +7968,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>255</v>
       </c>
@@ -8002,7 +8002,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A158" s="8" t="s">
         <v>255</v>
       </c>
@@ -8036,7 +8036,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A159" s="8" t="s">
         <v>255</v>
       </c>
@@ -8070,7 +8070,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A160" s="8" t="s">
         <v>255</v>
       </c>
@@ -8104,7 +8104,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A161" s="8" t="s">
         <v>255</v>
       </c>
@@ -8136,7 +8136,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A162" s="8" t="s">
         <v>255</v>
       </c>
@@ -8168,7 +8168,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A163" s="8" t="s">
         <v>255</v>
       </c>
@@ -8200,7 +8200,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A164" s="8" t="s">
         <v>255</v>
       </c>
@@ -8232,7 +8232,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A165" s="8" t="s">
         <v>255</v>
       </c>
@@ -8264,7 +8264,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A166" s="8" t="s">
         <v>255</v>
       </c>
@@ -8296,7 +8296,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A167" s="8" t="s">
         <v>255</v>
       </c>
@@ -8328,7 +8328,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A168" s="8" t="s">
         <v>255</v>
       </c>
@@ -8360,7 +8360,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A169" s="8" t="s">
         <v>255</v>
       </c>
@@ -8392,7 +8392,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A170" s="8" t="s">
         <v>255</v>
       </c>
@@ -8424,7 +8424,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A171" s="8" t="s">
         <v>255</v>
       </c>
@@ -8456,7 +8456,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A172" s="8" t="s">
         <v>255</v>
       </c>
@@ -8488,7 +8488,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A173" s="9" t="s">
         <v>255</v>
       </c>
@@ -8520,7 +8520,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A174" s="9" t="s">
         <v>255</v>
       </c>
@@ -8552,7 +8552,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A175" s="9" t="s">
         <v>255</v>
       </c>
@@ -8584,7 +8584,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A176" s="9" t="s">
         <v>255</v>
       </c>
@@ -8616,7 +8616,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A177" s="9" t="s">
         <v>255</v>
       </c>
@@ -8650,7 +8650,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A178" s="9" t="s">
         <v>255</v>
       </c>
@@ -8684,7 +8684,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="C179" s="18"/>
       <c r="D179" s="32"/>
       <c r="E179" s="2"/>
@@ -8710,7 +8710,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A180" s="19"/>
       <c r="B180" s="17"/>
       <c r="C180" s="18"/>
@@ -8738,7 +8738,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
         <v>303</v>
       </c>
@@ -8772,7 +8772,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
         <v>303</v>
       </c>
@@ -8806,7 +8806,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
         <v>303</v>
       </c>
@@ -8840,7 +8840,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>303</v>
       </c>
@@ -8874,7 +8874,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>303</v>
       </c>
@@ -8908,7 +8908,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>303</v>
       </c>
@@ -8938,7 +8938,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>303</v>
       </c>
@@ -8970,7 +8970,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A188" s="8" t="s">
         <v>303</v>
       </c>
@@ -9002,7 +9002,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" s="8" t="s">
         <v>303</v>
       </c>
@@ -9032,7 +9032,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A190" s="8" t="s">
         <v>303</v>
       </c>
@@ -9064,7 +9064,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A191" s="8" t="s">
         <v>303</v>
       </c>
@@ -9096,7 +9096,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A192" s="8" t="s">
         <v>303</v>
       </c>
@@ -9128,7 +9128,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A193" s="8" t="s">
         <v>303</v>
       </c>
@@ -9160,7 +9160,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A194" s="8" t="s">
         <v>303</v>
       </c>
@@ -9192,7 +9192,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A195" s="8" t="s">
         <v>303</v>
       </c>
@@ -9224,7 +9224,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A196" s="8" t="s">
         <v>303</v>
       </c>
@@ -9256,7 +9256,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A197" s="9" t="s">
         <v>303</v>
       </c>
@@ -9286,7 +9286,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A198" s="9" t="s">
         <v>303</v>
       </c>
@@ -9318,7 +9318,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A199" s="9" t="s">
         <v>303</v>
       </c>
@@ -9350,7 +9350,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A200" s="9" t="s">
         <v>303</v>
       </c>
@@ -9380,7 +9380,7 @@
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A201" s="9" t="s">
         <v>303</v>
       </c>
@@ -9410,7 +9410,7 @@
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A202" s="9" t="s">
         <v>303</v>
       </c>
@@ -9442,7 +9442,7 @@
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
     </row>
-    <row r="203" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A203" s="19"/>
       <c r="B203" s="17"/>
       <c r="C203" s="18"/>
@@ -9470,7 +9470,7 @@
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
     </row>
-    <row r="204" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A204" s="19"/>
       <c r="B204" s="17"/>
       <c r="C204" s="18"/>
@@ -9498,7 +9498,7 @@
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>336</v>
       </c>
@@ -9532,7 +9532,7 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
         <v>336</v>
       </c>
@@ -9566,7 +9566,7 @@
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>336</v>
       </c>
@@ -9600,7 +9600,7 @@
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
         <v>336</v>
       </c>
@@ -9634,7 +9634,7 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A209" s="5" t="s">
         <v>336</v>
       </c>
@@ -9668,7 +9668,7 @@
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
         <v>336</v>
       </c>
@@ -9702,7 +9702,7 @@
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
         <v>336</v>
       </c>
@@ -9735,7 +9735,7 @@
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A212" s="5" t="s">
         <v>336</v>
       </c>
@@ -9768,7 +9768,7 @@
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A213" s="5" t="s">
         <v>336</v>
       </c>
@@ -9801,7 +9801,7 @@
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A214" s="5" t="s">
         <v>336</v>
       </c>
@@ -9834,7 +9834,7 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
         <v>336</v>
       </c>
@@ -9867,7 +9867,7 @@
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A216" s="5" t="s">
         <v>336</v>
       </c>
@@ -9900,7 +9900,7 @@
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A217" s="5" t="s">
         <v>336</v>
       </c>
@@ -9933,7 +9933,7 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
         <v>336</v>
       </c>
@@ -9966,7 +9966,7 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A219" s="8" t="s">
         <v>336</v>
       </c>
@@ -10000,7 +10000,7 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A220" s="8" t="s">
         <v>336</v>
       </c>
@@ -10034,7 +10034,7 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A221" s="8" t="s">
         <v>336</v>
       </c>
@@ -10068,7 +10068,7 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A222" s="8" t="s">
         <v>336</v>
       </c>
@@ -10102,7 +10102,7 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A223" s="8" t="s">
         <v>336</v>
       </c>
@@ -10136,7 +10136,7 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A224" s="8" t="s">
         <v>336</v>
       </c>
@@ -10170,7 +10170,7 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A225" s="8" t="s">
         <v>336</v>
       </c>
@@ -10204,7 +10204,7 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A226" s="8" t="s">
         <v>336</v>
       </c>
@@ -10238,7 +10238,7 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A227" s="8" t="s">
         <v>336</v>
       </c>
@@ -10272,7 +10272,7 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A228" s="8" t="s">
         <v>336</v>
       </c>
@@ -10306,7 +10306,7 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A229" s="8" t="s">
         <v>336</v>
       </c>
@@ -10340,7 +10340,7 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A230" s="8" t="s">
         <v>336</v>
       </c>
@@ -10374,7 +10374,7 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A231" s="8" t="s">
         <v>336</v>
       </c>
@@ -10408,7 +10408,7 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A232" s="8" t="s">
         <v>336</v>
       </c>
@@ -10442,7 +10442,7 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A233" s="8" t="s">
         <v>336</v>
       </c>
@@ -10476,7 +10476,7 @@
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A234" s="9" t="s">
         <v>336</v>
       </c>
@@ -10510,7 +10510,7 @@
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A235" s="9" t="s">
         <v>336</v>
       </c>
@@ -10544,7 +10544,7 @@
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A236" s="9" t="s">
         <v>336</v>
       </c>
@@ -10578,7 +10578,7 @@
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A237" s="9" t="s">
         <v>336</v>
       </c>
@@ -10612,7 +10612,7 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A238" s="19"/>
       <c r="B238" s="17"/>
       <c r="C238" s="18"/>
@@ -10640,7 +10640,7 @@
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
     </row>
-    <row r="239" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A239" s="19"/>
       <c r="B239" s="17"/>
       <c r="C239" s="18"/>
@@ -10668,7 +10668,7 @@
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A240" s="5" t="s">
         <v>396</v>
       </c>
@@ -10702,7 +10702,7 @@
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A241" s="5" t="s">
         <v>396</v>
       </c>
@@ -10736,7 +10736,7 @@
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A242" s="5" t="s">
         <v>396</v>
       </c>
@@ -10770,7 +10770,7 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A243" s="5" t="s">
         <v>396</v>
       </c>
@@ -10803,7 +10803,7 @@
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A244" s="5" t="s">
         <v>396</v>
       </c>
@@ -10836,7 +10836,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A245" s="5" t="s">
         <v>396</v>
       </c>
@@ -10869,7 +10869,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A246" s="5" t="s">
         <v>396</v>
       </c>
@@ -10902,7 +10902,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A247" s="8" t="s">
         <v>396</v>
       </c>
@@ -10935,7 +10935,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A248" s="8" t="s">
         <v>396</v>
       </c>
@@ -10968,7 +10968,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A249" s="8" t="s">
         <v>396</v>
       </c>
@@ -11001,7 +11001,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A250" s="8" t="s">
         <v>396</v>
       </c>
@@ -11034,7 +11034,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A251" s="8" t="s">
         <v>396</v>
       </c>
@@ -11067,7 +11067,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A252" s="8" t="s">
         <v>396</v>
       </c>
@@ -11100,7 +11100,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A253" s="8" t="s">
         <v>396</v>
       </c>
@@ -11133,7 +11133,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A254" s="8" t="s">
         <v>396</v>
       </c>
@@ -11166,7 +11166,7 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A255" s="8" t="s">
         <v>396</v>
       </c>
@@ -11199,7 +11199,7 @@
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A256" s="9" t="s">
         <v>396</v>
       </c>
@@ -11232,7 +11232,7 @@
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A257" s="9" t="s">
         <v>396</v>
       </c>
@@ -11265,7 +11265,7 @@
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A258" s="9" t="s">
         <v>396</v>
       </c>
@@ -11298,7 +11298,7 @@
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A259" s="9" t="s">
         <v>396</v>
       </c>
@@ -11332,7 +11332,7 @@
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A260" s="9" t="s">
         <v>396</v>
       </c>
@@ -11368,7 +11368,7 @@
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
     </row>
-    <row r="261" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A261" s="19"/>
       <c r="B261" s="17"/>
       <c r="C261" s="18"/>
@@ -11396,7 +11396,7 @@
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
     </row>
-    <row r="262" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A262" s="19"/>
       <c r="B262" s="17"/>
       <c r="C262" s="18"/>
@@ -11424,7 +11424,7 @@
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A263" s="8" t="s">
         <v>431</v>
       </c>
@@ -11456,7 +11456,7 @@
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A264" s="8" t="s">
         <v>431</v>
       </c>
@@ -11490,7 +11490,7 @@
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A265" s="8" t="s">
         <v>431</v>
       </c>
@@ -11524,7 +11524,7 @@
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A266" s="8" t="s">
         <v>431</v>
       </c>
@@ -11558,7 +11558,7 @@
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A267" s="8" t="s">
         <v>431</v>
       </c>
@@ -11592,7 +11592,7 @@
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A268" s="8" t="s">
         <v>431</v>
       </c>
@@ -11626,7 +11626,7 @@
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A269" s="8" t="s">
         <v>431</v>
       </c>
@@ -11660,7 +11660,7 @@
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A270" s="8" t="s">
         <v>431</v>
       </c>
@@ -11694,7 +11694,7 @@
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A271" s="8" t="s">
         <v>431</v>
       </c>
@@ -11728,7 +11728,7 @@
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
     </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A272" s="8" t="s">
         <v>431</v>
       </c>
@@ -11762,7 +11762,7 @@
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A273" s="8" t="s">
         <v>431</v>
       </c>
@@ -11796,7 +11796,7 @@
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
     </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A274" s="8" t="s">
         <v>431</v>
       </c>
@@ -11830,7 +11830,7 @@
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
     </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A275" s="8" t="s">
         <v>431</v>
       </c>
@@ -11864,7 +11864,7 @@
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
     </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A276" s="8" t="s">
         <v>431</v>
       </c>
@@ -11898,7 +11898,7 @@
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A277" s="8" t="s">
         <v>431</v>
       </c>
@@ -11932,7 +11932,7 @@
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
     </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A278" s="8" t="s">
         <v>431</v>
       </c>
@@ -11966,7 +11966,7 @@
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A279" s="9" t="s">
         <v>431</v>
       </c>
@@ -12000,7 +12000,7 @@
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
     </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A280" s="9" t="s">
         <v>431</v>
       </c>
@@ -12034,7 +12034,7 @@
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
     </row>
-    <row r="281" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A281" s="9" t="s">
         <v>431</v>
       </c>
@@ -12067,7 +12067,7 @@
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A282" s="9" t="s">
         <v>431</v>
       </c>
@@ -12100,7 +12100,7 @@
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
     </row>
-    <row r="283" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A283" s="9" t="s">
         <v>431</v>
       </c>
@@ -12133,7 +12133,7 @@
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
     </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A284" s="9" t="s">
         <v>431</v>
       </c>
@@ -12166,7 +12166,7 @@
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
     </row>
-    <row r="285" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A285" s="9" t="s">
         <v>431</v>
       </c>
@@ -12199,7 +12199,7 @@
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
     </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A286" s="9" t="s">
         <v>431</v>
       </c>
@@ -12232,7 +12232,7 @@
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
     </row>
-    <row r="287" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A287" s="9" t="s">
         <v>431</v>
       </c>
@@ -12265,7 +12265,7 @@
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
     </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A288" s="9" t="s">
         <v>431</v>
       </c>
@@ -12298,7 +12298,7 @@
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
     </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A289" s="9" t="s">
         <v>431</v>
       </c>
@@ -12331,7 +12331,7 @@
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A290" s="9" t="s">
         <v>431</v>
       </c>
@@ -12364,7 +12364,7 @@
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
     </row>
-    <row r="291" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A291" s="19"/>
       <c r="B291" s="17"/>
       <c r="C291" s="18"/>
@@ -12391,7 +12391,7 @@
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
     </row>
-    <row r="292" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A292" s="19"/>
       <c r="B292" s="17"/>
       <c r="C292" s="18"/>
@@ -12419,7 +12419,7 @@
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
     </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A293" s="5" t="s">
         <v>476</v>
       </c>
@@ -12453,7 +12453,7 @@
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A294" s="5" t="s">
         <v>476</v>
       </c>
@@ -12487,7 +12487,7 @@
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
     </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A295" s="5" t="s">
         <v>476</v>
       </c>
@@ -12521,7 +12521,7 @@
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A296" s="5" t="s">
         <v>476</v>
       </c>
@@ -12555,7 +12555,7 @@
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
     </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A297" s="8" t="s">
         <v>476</v>
       </c>
@@ -12589,7 +12589,7 @@
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A298" s="8" t="s">
         <v>476</v>
       </c>
@@ -12623,7 +12623,7 @@
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
     </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A299" s="8" t="s">
         <v>476</v>
       </c>
@@ -12657,7 +12657,7 @@
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
     </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A300" s="8" t="s">
         <v>476</v>
       </c>
@@ -12691,7 +12691,7 @@
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
     </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A301" s="8" t="s">
         <v>476</v>
       </c>
@@ -12725,7 +12725,7 @@
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A302" s="8" t="s">
         <v>476</v>
       </c>
@@ -12759,7 +12759,7 @@
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A303" s="8" t="s">
         <v>476</v>
       </c>
@@ -12793,7 +12793,7 @@
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A304" s="8" t="s">
         <v>476</v>
       </c>
@@ -12827,7 +12827,7 @@
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
     </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A305" s="8" t="s">
         <v>476</v>
       </c>
@@ -12861,7 +12861,7 @@
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A306" s="8" t="s">
         <v>476</v>
       </c>
@@ -12895,7 +12895,7 @@
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
     </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A307" s="8" t="s">
         <v>476</v>
       </c>
@@ -12929,7 +12929,7 @@
       <c r="Y307" s="2"/>
       <c r="Z307" s="2"/>
     </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A308" s="8" t="s">
         <v>476</v>
       </c>
@@ -12963,7 +12963,7 @@
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
     </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A309" s="8" t="s">
         <v>476</v>
       </c>
@@ -12997,7 +12997,7 @@
       <c r="Y309" s="2"/>
       <c r="Z309" s="2"/>
     </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A310" s="8" t="s">
         <v>476</v>
       </c>
@@ -13031,7 +13031,7 @@
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
     </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A311" s="8" t="s">
         <v>476</v>
       </c>
@@ -13065,7 +13065,7 @@
       <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
     </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A312" s="8" t="s">
         <v>476</v>
       </c>
@@ -13099,7 +13099,7 @@
       <c r="Y312" s="2"/>
       <c r="Z312" s="2"/>
     </row>
-    <row r="313" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A313" s="8" t="s">
         <v>476</v>
       </c>
@@ -13133,7 +13133,7 @@
       <c r="Y313" s="2"/>
       <c r="Z313" s="2"/>
     </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A314" s="8" t="s">
         <v>476</v>
       </c>
@@ -13167,7 +13167,7 @@
       <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
     </row>
-    <row r="315" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A315" s="8" t="s">
         <v>476</v>
       </c>
@@ -13201,7 +13201,7 @@
       <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
     </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A316" s="8" t="s">
         <v>476</v>
       </c>
@@ -13235,7 +13235,7 @@
       <c r="Y316" s="2"/>
       <c r="Z316" s="2"/>
     </row>
-    <row r="317" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A317" s="8" t="s">
         <v>476</v>
       </c>
@@ -13269,7 +13269,7 @@
       <c r="Y317" s="2"/>
       <c r="Z317" s="2"/>
     </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A318" s="8" t="s">
         <v>476</v>
       </c>
@@ -13303,7 +13303,7 @@
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
     </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A319" s="8" t="s">
         <v>476</v>
       </c>
@@ -13337,7 +13337,7 @@
       <c r="Y319" s="2"/>
       <c r="Z319" s="2"/>
     </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A320" s="8" t="s">
         <v>476</v>
       </c>
@@ -13371,7 +13371,7 @@
       <c r="Y320" s="2"/>
       <c r="Z320" s="2"/>
     </row>
-    <row r="321" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A321" s="8" t="s">
         <v>476</v>
       </c>
@@ -13405,7 +13405,7 @@
       <c r="Y321" s="2"/>
       <c r="Z321" s="2"/>
     </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A322" s="9" t="s">
         <v>476</v>
       </c>
@@ -13439,7 +13439,7 @@
       <c r="Y322" s="2"/>
       <c r="Z322" s="2"/>
     </row>
-    <row r="323" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A323" s="9" t="s">
         <v>476</v>
       </c>
@@ -13473,7 +13473,7 @@
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
     </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A324" s="9" t="s">
         <v>476</v>
       </c>
@@ -13509,7 +13509,7 @@
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>
     </row>
-    <row r="325" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A325" s="9" t="s">
         <v>476</v>
       </c>
@@ -13543,7 +13543,7 @@
       <c r="Y325" s="2"/>
       <c r="Z325" s="2"/>
     </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A326" s="9" t="s">
         <v>476</v>
       </c>
@@ -13579,7 +13579,7 @@
       <c r="Y326" s="2"/>
       <c r="Z326" s="2"/>
     </row>
-    <row r="327" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A327" s="9" t="s">
         <v>476</v>
       </c>
@@ -13613,7 +13613,7 @@
       <c r="Y327" s="2"/>
       <c r="Z327" s="2"/>
     </row>
-    <row r="328" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A328" s="9" t="s">
         <v>476</v>
       </c>
@@ -13647,7 +13647,7 @@
       <c r="Y328" s="2"/>
       <c r="Z328" s="2"/>
     </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A329" s="9" t="s">
         <v>476</v>
       </c>
@@ -13681,7 +13681,7 @@
       <c r="Y329" s="2"/>
       <c r="Z329" s="2"/>
     </row>
-    <row r="330" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A330" s="9" t="s">
         <v>476</v>
       </c>
@@ -13715,7 +13715,7 @@
       <c r="Y330" s="2"/>
       <c r="Z330" s="2"/>
     </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A331" s="9" t="s">
         <v>476</v>
       </c>
@@ -13749,7 +13749,7 @@
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
     </row>
-    <row r="332" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A332" s="9" t="s">
         <v>476</v>
       </c>
@@ -13783,7 +13783,7 @@
       <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
     </row>
-    <row r="333" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A333" s="19"/>
       <c r="B333" s="17"/>
       <c r="C333" s="18"/>
@@ -13811,7 +13811,7 @@
       <c r="Y333" s="2"/>
       <c r="Z333" s="2"/>
     </row>
-    <row r="334" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A334" s="19"/>
       <c r="B334" s="17"/>
       <c r="C334" s="18"/>
@@ -13839,7 +13839,7 @@
       <c r="Y334" s="2"/>
       <c r="Z334" s="2"/>
     </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A335" s="8" t="s">
         <v>540</v>
       </c>
@@ -13873,7 +13873,7 @@
       <c r="Y335" s="2"/>
       <c r="Z335" s="2"/>
     </row>
-    <row r="336" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A336" s="8" t="s">
         <v>540</v>
       </c>
@@ -13907,7 +13907,7 @@
       <c r="Y336" s="2"/>
       <c r="Z336" s="2"/>
     </row>
-    <row r="337" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A337" s="8" t="s">
         <v>540</v>
       </c>
@@ -13941,7 +13941,7 @@
       <c r="Y337" s="2"/>
       <c r="Z337" s="2"/>
     </row>
-    <row r="338" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A338" s="8" t="s">
         <v>540</v>
       </c>
@@ -13975,7 +13975,7 @@
       <c r="Y338" s="2"/>
       <c r="Z338" s="2"/>
     </row>
-    <row r="339" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A339" s="9" t="s">
         <v>540</v>
       </c>
@@ -14009,7 +14009,7 @@
       <c r="Y339" s="2"/>
       <c r="Z339" s="2"/>
     </row>
-    <row r="340" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A340" s="9" t="s">
         <v>540</v>
       </c>
@@ -14043,7 +14043,7 @@
       <c r="Y340" s="2"/>
       <c r="Z340" s="2"/>
     </row>
-    <row r="341" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A341" s="19"/>
       <c r="B341" s="17"/>
       <c r="C341" s="18"/>
@@ -14071,7 +14071,7 @@
       <c r="Y341" s="2"/>
       <c r="Z341" s="2"/>
     </row>
-    <row r="342" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A342" s="19"/>
       <c r="B342" s="17"/>
       <c r="C342" s="18"/>
@@ -14099,7 +14099,7 @@
       <c r="Y342" s="2"/>
       <c r="Z342" s="2"/>
     </row>
-    <row r="343" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A343" s="5" t="s">
         <v>553</v>
       </c>
@@ -14133,7 +14133,7 @@
       <c r="Y343" s="2"/>
       <c r="Z343" s="2"/>
     </row>
-    <row r="344" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A344" s="5" t="s">
         <v>553</v>
       </c>
@@ -14167,7 +14167,7 @@
       <c r="Y344" s="2"/>
       <c r="Z344" s="2"/>
     </row>
-    <row r="345" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A345" s="5" t="s">
         <v>553</v>
       </c>
@@ -14201,7 +14201,7 @@
       <c r="Y345" s="2"/>
       <c r="Z345" s="2"/>
     </row>
-    <row r="346" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A346" s="5" t="s">
         <v>553</v>
       </c>
@@ -14235,7 +14235,7 @@
       <c r="Y346" s="2"/>
       <c r="Z346" s="2"/>
     </row>
-    <row r="347" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A347" s="5" t="s">
         <v>553</v>
       </c>
@@ -14269,7 +14269,7 @@
       <c r="Y347" s="2"/>
       <c r="Z347" s="2"/>
     </row>
-    <row r="348" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A348" s="5" t="s">
         <v>553</v>
       </c>
@@ -14303,7 +14303,7 @@
       <c r="Y348" s="2"/>
       <c r="Z348" s="2"/>
     </row>
-    <row r="349" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A349" s="5" t="s">
         <v>553</v>
       </c>
@@ -14337,7 +14337,7 @@
       <c r="Y349" s="2"/>
       <c r="Z349" s="2"/>
     </row>
-    <row r="350" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A350" s="5" t="s">
         <v>553</v>
       </c>
@@ -14371,7 +14371,7 @@
       <c r="Y350" s="2"/>
       <c r="Z350" s="2"/>
     </row>
-    <row r="351" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A351" s="5" t="s">
         <v>553</v>
       </c>
@@ -14405,7 +14405,7 @@
       <c r="Y351" s="2"/>
       <c r="Z351" s="2"/>
     </row>
-    <row r="352" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A352" s="8" t="s">
         <v>553</v>
       </c>
@@ -14439,7 +14439,7 @@
       <c r="Y352" s="2"/>
       <c r="Z352" s="2"/>
     </row>
-    <row r="353" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A353" s="8" t="s">
         <v>553</v>
       </c>
@@ -14473,7 +14473,7 @@
       <c r="Y353" s="2"/>
       <c r="Z353" s="2"/>
     </row>
-    <row r="354" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A354" s="8" t="s">
         <v>553</v>
       </c>
@@ -14507,7 +14507,7 @@
       <c r="Y354" s="2"/>
       <c r="Z354" s="2"/>
     </row>
-    <row r="355" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A355" s="8" t="s">
         <v>553</v>
       </c>
@@ -14541,7 +14541,7 @@
       <c r="Y355" s="2"/>
       <c r="Z355" s="2"/>
     </row>
-    <row r="356" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A356" s="8" t="s">
         <v>553</v>
       </c>
@@ -14575,7 +14575,7 @@
       <c r="Y356" s="2"/>
       <c r="Z356" s="2"/>
     </row>
-    <row r="357" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A357" s="8" t="s">
         <v>553</v>
       </c>
@@ -14609,7 +14609,7 @@
       <c r="Y357" s="2"/>
       <c r="Z357" s="2"/>
     </row>
-    <row r="358" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A358" s="8" t="s">
         <v>553</v>
       </c>
@@ -14643,7 +14643,7 @@
       <c r="Y358" s="2"/>
       <c r="Z358" s="2"/>
     </row>
-    <row r="359" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A359" s="8" t="s">
         <v>553</v>
       </c>
@@ -14677,7 +14677,7 @@
       <c r="Y359" s="2"/>
       <c r="Z359" s="2"/>
     </row>
-    <row r="360" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A360" s="8" t="s">
         <v>553</v>
       </c>
@@ -14711,7 +14711,7 @@
       <c r="Y360" s="2"/>
       <c r="Z360" s="2"/>
     </row>
-    <row r="361" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A361" s="8" t="s">
         <v>553</v>
       </c>
@@ -14745,7 +14745,7 @@
       <c r="Y361" s="2"/>
       <c r="Z361" s="2"/>
     </row>
-    <row r="362" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A362" s="8" t="s">
         <v>553</v>
       </c>
@@ -14779,7 +14779,7 @@
       <c r="Y362" s="2"/>
       <c r="Z362" s="2"/>
     </row>
-    <row r="363" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A363" s="8" t="s">
         <v>553</v>
       </c>
@@ -14813,7 +14813,7 @@
       <c r="Y363" s="2"/>
       <c r="Z363" s="2"/>
     </row>
-    <row r="364" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A364" s="8" t="s">
         <v>553</v>
       </c>
@@ -14847,7 +14847,7 @@
       <c r="Y364" s="2"/>
       <c r="Z364" s="2"/>
     </row>
-    <row r="365" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A365" s="8" t="s">
         <v>553</v>
       </c>
@@ -14881,7 +14881,7 @@
       <c r="Y365" s="2"/>
       <c r="Z365" s="2"/>
     </row>
-    <row r="366" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A366" s="8" t="s">
         <v>553</v>
       </c>
@@ -14915,7 +14915,7 @@
       <c r="Y366" s="2"/>
       <c r="Z366" s="2"/>
     </row>
-    <row r="367" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A367" s="8" t="s">
         <v>553</v>
       </c>
@@ -14949,7 +14949,7 @@
       <c r="Y367" s="2"/>
       <c r="Z367" s="2"/>
     </row>
-    <row r="368" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A368" s="8" t="s">
         <v>553</v>
       </c>
@@ -14983,7 +14983,7 @@
       <c r="Y368" s="2"/>
       <c r="Z368" s="2"/>
     </row>
-    <row r="369" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A369" s="8" t="s">
         <v>553</v>
       </c>
@@ -15017,7 +15017,7 @@
       <c r="Y369" s="2"/>
       <c r="Z369" s="2"/>
     </row>
-    <row r="370" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A370" s="8" t="s">
         <v>553</v>
       </c>
@@ -15051,7 +15051,7 @@
       <c r="Y370" s="2"/>
       <c r="Z370" s="2"/>
     </row>
-    <row r="371" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A371" s="8" t="s">
         <v>553</v>
       </c>
@@ -15085,7 +15085,7 @@
       <c r="Y371" s="2"/>
       <c r="Z371" s="2"/>
     </row>
-    <row r="372" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A372" s="8" t="s">
         <v>553</v>
       </c>
@@ -15119,7 +15119,7 @@
       <c r="Y372" s="2"/>
       <c r="Z372" s="2"/>
     </row>
-    <row r="373" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A373" s="8" t="s">
         <v>553</v>
       </c>
@@ -15153,7 +15153,7 @@
       <c r="Y373" s="2"/>
       <c r="Z373" s="2"/>
     </row>
-    <row r="374" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A374" s="8" t="s">
         <v>553</v>
       </c>
@@ -15187,7 +15187,7 @@
       <c r="Y374" s="2"/>
       <c r="Z374" s="2"/>
     </row>
-    <row r="375" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A375" s="8" t="s">
         <v>553</v>
       </c>
@@ -15221,7 +15221,7 @@
       <c r="Y375" s="2"/>
       <c r="Z375" s="2"/>
     </row>
-    <row r="376" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A376" s="8" t="s">
         <v>553</v>
       </c>
@@ -15255,7 +15255,7 @@
       <c r="Y376" s="2"/>
       <c r="Z376" s="2"/>
     </row>
-    <row r="377" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A377" s="8" t="s">
         <v>553</v>
       </c>
@@ -15289,7 +15289,7 @@
       <c r="Y377" s="2"/>
       <c r="Z377" s="2"/>
     </row>
-    <row r="378" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A378" s="8" t="s">
         <v>553</v>
       </c>
@@ -15323,7 +15323,7 @@
       <c r="Y378" s="2"/>
       <c r="Z378" s="2"/>
     </row>
-    <row r="379" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A379" s="8" t="s">
         <v>553</v>
       </c>
@@ -15357,7 +15357,7 @@
       <c r="Y379" s="2"/>
       <c r="Z379" s="2"/>
     </row>
-    <row r="380" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A380" s="8" t="s">
         <v>553</v>
       </c>
@@ -15391,7 +15391,7 @@
       <c r="Y380" s="2"/>
       <c r="Z380" s="2"/>
     </row>
-    <row r="381" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A381" s="8" t="s">
         <v>553</v>
       </c>
@@ -15425,7 +15425,7 @@
       <c r="Y381" s="2"/>
       <c r="Z381" s="2"/>
     </row>
-    <row r="382" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A382" s="8" t="s">
         <v>553</v>
       </c>
@@ -15459,7 +15459,7 @@
       <c r="Y382" s="2"/>
       <c r="Z382" s="2"/>
     </row>
-    <row r="383" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A383" s="8" t="s">
         <v>553</v>
       </c>
@@ -15493,7 +15493,7 @@
       <c r="Y383" s="2"/>
       <c r="Z383" s="2"/>
     </row>
-    <row r="384" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A384" s="8" t="s">
         <v>553</v>
       </c>
@@ -15527,7 +15527,7 @@
       <c r="Y384" s="2"/>
       <c r="Z384" s="2"/>
     </row>
-    <row r="385" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A385" s="8" t="s">
         <v>553</v>
       </c>
@@ -15561,7 +15561,7 @@
       <c r="Y385" s="2"/>
       <c r="Z385" s="2"/>
     </row>
-    <row r="386" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A386" s="8" t="s">
         <v>553</v>
       </c>
@@ -15595,7 +15595,7 @@
       <c r="Y386" s="2"/>
       <c r="Z386" s="2"/>
     </row>
-    <row r="387" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A387" s="8" t="s">
         <v>553</v>
       </c>
@@ -15629,7 +15629,7 @@
       <c r="Y387" s="2"/>
       <c r="Z387" s="2"/>
     </row>
-    <row r="388" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A388" s="8" t="s">
         <v>553</v>
       </c>
@@ -15663,7 +15663,7 @@
       <c r="Y388" s="2"/>
       <c r="Z388" s="2"/>
     </row>
-    <row r="389" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A389" s="8" t="s">
         <v>553</v>
       </c>
@@ -15697,7 +15697,7 @@
       <c r="Y389" s="2"/>
       <c r="Z389" s="2"/>
     </row>
-    <row r="390" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A390" s="8" t="s">
         <v>553</v>
       </c>
@@ -15731,7 +15731,7 @@
       <c r="Y390" s="2"/>
       <c r="Z390" s="2"/>
     </row>
-    <row r="391" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A391" s="8" t="s">
         <v>553</v>
       </c>
@@ -15765,7 +15765,7 @@
       <c r="Y391" s="2"/>
       <c r="Z391" s="2"/>
     </row>
-    <row r="392" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A392" s="9" t="s">
         <v>553</v>
       </c>
@@ -15799,7 +15799,7 @@
       <c r="Y392" s="2"/>
       <c r="Z392" s="2"/>
     </row>
-    <row r="393" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A393" s="9" t="s">
         <v>553</v>
       </c>
@@ -15833,7 +15833,7 @@
       <c r="Y393" s="2"/>
       <c r="Z393" s="2"/>
     </row>
-    <row r="394" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A394" s="9" t="s">
         <v>553</v>
       </c>
@@ -15867,7 +15867,7 @@
       <c r="Y394" s="2"/>
       <c r="Z394" s="2"/>
     </row>
-    <row r="395" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A395" s="9" t="s">
         <v>553</v>
       </c>
@@ -15901,7 +15901,7 @@
       <c r="Y395" s="2"/>
       <c r="Z395" s="2"/>
     </row>
-    <row r="396" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A396" s="9" t="s">
         <v>553</v>
       </c>
@@ -15935,7 +15935,7 @@
       <c r="Y396" s="2"/>
       <c r="Z396" s="2"/>
     </row>
-    <row r="397" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="C397" s="18"/>
       <c r="D397" s="2"/>
       <c r="E397" s="32"/>
@@ -15961,7 +15961,7 @@
       <c r="Y397" s="2"/>
       <c r="Z397" s="2"/>
     </row>
-    <row r="398" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A398" s="19"/>
       <c r="B398" s="17"/>
       <c r="C398" s="18"/>
@@ -15989,7 +15989,7 @@
       <c r="Y398" s="2"/>
       <c r="Z398" s="2"/>
     </row>
-    <row r="399" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A399" s="5" t="s">
         <v>633</v>
       </c>
@@ -16021,7 +16021,7 @@
       <c r="Y399" s="2"/>
       <c r="Z399" s="2"/>
     </row>
-    <row r="400" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A400" s="5" t="s">
         <v>633</v>
       </c>
@@ -16053,7 +16053,7 @@
       <c r="Y400" s="2"/>
       <c r="Z400" s="2"/>
     </row>
-    <row r="401" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A401" s="5" t="s">
         <v>633</v>
       </c>
@@ -16085,7 +16085,7 @@
       <c r="Y401" s="2"/>
       <c r="Z401" s="2"/>
     </row>
-    <row r="402" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A402" s="5" t="s">
         <v>633</v>
       </c>
@@ -16117,7 +16117,7 @@
       <c r="Y402" s="2"/>
       <c r="Z402" s="2"/>
     </row>
-    <row r="403" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A403" s="5" t="s">
         <v>633</v>
       </c>
@@ -16149,7 +16149,7 @@
       <c r="Y403" s="2"/>
       <c r="Z403" s="2"/>
     </row>
-    <row r="404" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A404" s="8" t="s">
         <v>633</v>
       </c>
@@ -16181,7 +16181,7 @@
       <c r="Y404" s="2"/>
       <c r="Z404" s="2"/>
     </row>
-    <row r="405" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A405" s="8" t="s">
         <v>633</v>
       </c>
@@ -16213,7 +16213,7 @@
       <c r="Y405" s="2"/>
       <c r="Z405" s="2"/>
     </row>
-    <row r="406" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A406" s="8" t="s">
         <v>633</v>
       </c>
@@ -16245,7 +16245,7 @@
       <c r="Y406" s="2"/>
       <c r="Z406" s="2"/>
     </row>
-    <row r="407" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A407" s="8" t="s">
         <v>633</v>
       </c>
@@ -16277,7 +16277,7 @@
       <c r="Y407" s="2"/>
       <c r="Z407" s="2"/>
     </row>
-    <row r="408" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A408" s="8" t="s">
         <v>633</v>
       </c>
@@ -16309,7 +16309,7 @@
       <c r="Y408" s="2"/>
       <c r="Z408" s="2"/>
     </row>
-    <row r="409" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A409" s="19"/>
       <c r="B409" s="17"/>
       <c r="C409" s="18"/>
@@ -16335,7 +16335,7 @@
       <c r="Y409" s="2"/>
       <c r="Z409" s="2"/>
     </row>
-    <row r="410" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A410" s="19"/>
       <c r="B410" s="17"/>
       <c r="C410" s="18"/>
@@ -16361,7 +16361,7 @@
       <c r="Y410" s="2"/>
       <c r="Z410" s="2"/>
     </row>
-    <row r="411" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A411" s="8" t="s">
         <v>648</v>
       </c>
@@ -16391,7 +16391,7 @@
       <c r="Y411" s="2"/>
       <c r="Z411" s="2"/>
     </row>
-    <row r="412" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A412" s="8" t="s">
         <v>648</v>
       </c>
@@ -16423,7 +16423,7 @@
       <c r="Y412" s="2"/>
       <c r="Z412" s="2"/>
     </row>
-    <row r="413" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A413" s="8" t="s">
         <v>648</v>
       </c>
@@ -16455,7 +16455,7 @@
       <c r="Y413" s="2"/>
       <c r="Z413" s="2"/>
     </row>
-    <row r="414" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A414" s="9" t="s">
         <v>648</v>
       </c>
@@ -16487,7 +16487,7 @@
       <c r="Y414" s="2"/>
       <c r="Z414" s="2"/>
     </row>
-    <row r="415" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A415" s="9" t="s">
         <v>648</v>
       </c>
@@ -16521,7 +16521,7 @@
       <c r="Y415" s="2"/>
       <c r="Z415" s="2"/>
     </row>
-    <row r="416" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A416" s="9" t="s">
         <v>648</v>
       </c>
@@ -16555,7 +16555,7 @@
       <c r="Y416" s="2"/>
       <c r="Z416" s="2"/>
     </row>
-    <row r="417" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A417" s="16"/>
       <c r="B417" s="17"/>
       <c r="C417" s="18"/>
@@ -16583,7 +16583,7 @@
       <c r="Y417" s="2"/>
       <c r="Z417" s="2"/>
     </row>
-    <row r="418" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A418" s="16"/>
       <c r="B418" s="17"/>
       <c r="C418" s="36"/>
@@ -16611,7 +16611,7 @@
       <c r="Y418" s="2"/>
       <c r="Z418" s="2"/>
     </row>
-    <row r="419" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A419" s="16"/>
       <c r="B419" s="17"/>
       <c r="C419" s="36"/>
@@ -16639,7 +16639,7 @@
       <c r="Y419" s="2"/>
       <c r="Z419" s="2"/>
     </row>
-    <row r="420" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A420" s="16"/>
       <c r="B420" s="17"/>
       <c r="C420" s="36"/>
@@ -16667,7 +16667,7 @@
       <c r="Y420" s="2"/>
       <c r="Z420" s="2"/>
     </row>
-    <row r="421" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A421" s="16"/>
       <c r="B421" s="17"/>
       <c r="C421" s="36"/>
@@ -16695,7 +16695,7 @@
       <c r="Y421" s="2"/>
       <c r="Z421" s="2"/>
     </row>
-    <row r="422" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A422" s="16"/>
       <c r="B422" s="17"/>
       <c r="C422" s="36"/>
@@ -16723,7 +16723,7 @@
       <c r="Y422" s="2"/>
       <c r="Z422" s="2"/>
     </row>
-    <row r="423" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A423" s="16"/>
       <c r="B423" s="17"/>
       <c r="C423" s="36"/>
@@ -16751,7 +16751,7 @@
       <c r="Y423" s="2"/>
       <c r="Z423" s="2"/>
     </row>
-    <row r="424" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A424" s="16"/>
       <c r="B424" s="17"/>
       <c r="C424" s="36"/>
@@ -16779,7 +16779,7 @@
       <c r="Y424" s="2"/>
       <c r="Z424" s="2"/>
     </row>
-    <row r="425" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A425" s="16"/>
       <c r="B425" s="17"/>
       <c r="C425" s="36"/>
@@ -16807,7 +16807,7 @@
       <c r="Y425" s="2"/>
       <c r="Z425" s="2"/>
     </row>
-    <row r="426" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A426" s="16"/>
       <c r="B426" s="17"/>
       <c r="C426" s="36"/>
@@ -16835,7 +16835,7 @@
       <c r="Y426" s="2"/>
       <c r="Z426" s="2"/>
     </row>
-    <row r="427" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A427" s="16"/>
       <c r="B427" s="17"/>
       <c r="C427" s="36"/>
@@ -16863,7 +16863,7 @@
       <c r="Y427" s="2"/>
       <c r="Z427" s="2"/>
     </row>
-    <row r="428" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A428" s="16"/>
       <c r="B428" s="17"/>
       <c r="C428" s="36"/>
@@ -16891,7 +16891,7 @@
       <c r="Y428" s="2"/>
       <c r="Z428" s="2"/>
     </row>
-    <row r="429" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A429" s="16"/>
       <c r="B429" s="17"/>
       <c r="C429" s="36"/>
@@ -16919,7 +16919,7 @@
       <c r="Y429" s="2"/>
       <c r="Z429" s="2"/>
     </row>
-    <row r="430" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A430" s="16"/>
       <c r="B430" s="17"/>
       <c r="C430" s="36"/>
@@ -16947,7 +16947,7 @@
       <c r="Y430" s="2"/>
       <c r="Z430" s="2"/>
     </row>
-    <row r="431" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A431" s="16"/>
       <c r="B431" s="17"/>
       <c r="C431" s="36"/>
@@ -16975,7 +16975,7 @@
       <c r="Y431" s="2"/>
       <c r="Z431" s="2"/>
     </row>
-    <row r="432" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A432" s="16"/>
       <c r="B432" s="17"/>
       <c r="C432" s="36"/>
@@ -17003,7 +17003,7 @@
       <c r="Y432" s="2"/>
       <c r="Z432" s="2"/>
     </row>
-    <row r="433" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A433" s="16"/>
       <c r="B433" s="17"/>
       <c r="C433" s="36"/>
@@ -17031,7 +17031,7 @@
       <c r="Y433" s="2"/>
       <c r="Z433" s="2"/>
     </row>
-    <row r="434" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A434" s="16"/>
       <c r="B434" s="17"/>
       <c r="C434" s="36"/>
@@ -17059,7 +17059,7 @@
       <c r="Y434" s="2"/>
       <c r="Z434" s="2"/>
     </row>
-    <row r="435" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A435" s="16"/>
       <c r="B435" s="17"/>
       <c r="C435" s="36"/>
@@ -17087,7 +17087,7 @@
       <c r="Y435" s="2"/>
       <c r="Z435" s="2"/>
     </row>
-    <row r="436" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A436" s="16"/>
       <c r="B436" s="17"/>
       <c r="C436" s="36"/>
@@ -17115,7 +17115,7 @@
       <c r="Y436" s="2"/>
       <c r="Z436" s="2"/>
     </row>
-    <row r="437" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A437" s="16"/>
       <c r="B437" s="17"/>
       <c r="C437" s="36"/>
@@ -17143,7 +17143,7 @@
       <c r="Y437" s="2"/>
       <c r="Z437" s="2"/>
     </row>
-    <row r="438" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A438" s="16"/>
       <c r="B438" s="17"/>
       <c r="C438" s="36"/>
@@ -17171,7 +17171,7 @@
       <c r="Y438" s="2"/>
       <c r="Z438" s="2"/>
     </row>
-    <row r="439" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A439" s="16"/>
       <c r="B439" s="17"/>
       <c r="C439" s="36"/>
@@ -17199,7 +17199,7 @@
       <c r="Y439" s="2"/>
       <c r="Z439" s="2"/>
     </row>
-    <row r="440" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A440" s="16"/>
       <c r="B440" s="17"/>
       <c r="C440" s="36"/>
@@ -17227,7 +17227,7 @@
       <c r="Y440" s="2"/>
       <c r="Z440" s="2"/>
     </row>
-    <row r="441" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A441" s="16"/>
       <c r="B441" s="17"/>
       <c r="C441" s="36"/>
@@ -17255,7 +17255,7 @@
       <c r="Y441" s="2"/>
       <c r="Z441" s="2"/>
     </row>
-    <row r="442" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A442" s="16"/>
       <c r="B442" s="17"/>
       <c r="C442" s="36"/>
@@ -17283,7 +17283,7 @@
       <c r="Y442" s="2"/>
       <c r="Z442" s="2"/>
     </row>
-    <row r="443" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A443" s="16"/>
       <c r="B443" s="17"/>
       <c r="C443" s="36"/>
@@ -17311,7 +17311,7 @@
       <c r="Y443" s="2"/>
       <c r="Z443" s="2"/>
     </row>
-    <row r="444" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A444" s="16"/>
       <c r="B444" s="17"/>
       <c r="C444" s="36"/>
@@ -17339,7 +17339,7 @@
       <c r="Y444" s="2"/>
       <c r="Z444" s="2"/>
     </row>
-    <row r="445" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A445" s="16"/>
       <c r="B445" s="17"/>
       <c r="C445" s="36"/>
@@ -17367,7 +17367,7 @@
       <c r="Y445" s="2"/>
       <c r="Z445" s="2"/>
     </row>
-    <row r="446" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A446" s="16"/>
       <c r="B446" s="17"/>
       <c r="C446" s="36"/>
@@ -17395,7 +17395,7 @@
       <c r="Y446" s="2"/>
       <c r="Z446" s="2"/>
     </row>
-    <row r="447" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A447" s="16"/>
       <c r="B447" s="17"/>
       <c r="C447" s="36"/>
@@ -17423,7 +17423,7 @@
       <c r="Y447" s="2"/>
       <c r="Z447" s="2"/>
     </row>
-    <row r="448" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A448" s="16"/>
       <c r="B448" s="17"/>
       <c r="C448" s="36"/>
@@ -17451,7 +17451,7 @@
       <c r="Y448" s="2"/>
       <c r="Z448" s="2"/>
     </row>
-    <row r="449" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A449" s="16"/>
       <c r="B449" s="17"/>
       <c r="C449" s="36"/>
@@ -17479,7 +17479,7 @@
       <c r="Y449" s="2"/>
       <c r="Z449" s="2"/>
     </row>
-    <row r="450" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A450" s="16"/>
       <c r="B450" s="17"/>
       <c r="C450" s="36"/>
@@ -17507,7 +17507,7 @@
       <c r="Y450" s="2"/>
       <c r="Z450" s="2"/>
     </row>
-    <row r="451" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A451" s="16"/>
       <c r="B451" s="17"/>
       <c r="C451" s="36"/>
@@ -17535,7 +17535,7 @@
       <c r="Y451" s="2"/>
       <c r="Z451" s="2"/>
     </row>
-    <row r="452" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A452" s="16"/>
       <c r="B452" s="17"/>
       <c r="C452" s="36"/>
@@ -17563,7 +17563,7 @@
       <c r="Y452" s="2"/>
       <c r="Z452" s="2"/>
     </row>
-    <row r="453" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A453" s="16"/>
       <c r="B453" s="17"/>
       <c r="C453" s="36"/>
@@ -17591,7 +17591,7 @@
       <c r="Y453" s="2"/>
       <c r="Z453" s="2"/>
     </row>
-    <row r="454" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A454" s="16"/>
       <c r="B454" s="17"/>
       <c r="C454" s="36"/>
@@ -17619,7 +17619,7 @@
       <c r="Y454" s="2"/>
       <c r="Z454" s="2"/>
     </row>
-    <row r="455" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A455" s="16"/>
       <c r="B455" s="17"/>
       <c r="C455" s="36"/>
@@ -17647,7 +17647,7 @@
       <c r="Y455" s="2"/>
       <c r="Z455" s="2"/>
     </row>
-    <row r="456" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A456" s="16"/>
       <c r="B456" s="17"/>
       <c r="C456" s="36"/>
@@ -17675,7 +17675,7 @@
       <c r="Y456" s="2"/>
       <c r="Z456" s="2"/>
     </row>
-    <row r="457" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A457" s="16"/>
       <c r="B457" s="17"/>
       <c r="C457" s="36"/>
@@ -17703,7 +17703,7 @@
       <c r="Y457" s="2"/>
       <c r="Z457" s="2"/>
     </row>
-    <row r="458" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A458" s="16"/>
       <c r="B458" s="17"/>
       <c r="C458" s="36"/>
@@ -17731,7 +17731,7 @@
       <c r="Y458" s="2"/>
       <c r="Z458" s="2"/>
     </row>
-    <row r="459" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A459" s="16"/>
       <c r="B459" s="17"/>
       <c r="C459" s="36"/>
@@ -17759,7 +17759,7 @@
       <c r="Y459" s="2"/>
       <c r="Z459" s="2"/>
     </row>
-    <row r="460" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A460" s="16"/>
       <c r="B460" s="17"/>
       <c r="C460" s="36"/>
@@ -17787,7 +17787,7 @@
       <c r="Y460" s="2"/>
       <c r="Z460" s="2"/>
     </row>
-    <row r="461" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A461" s="16"/>
       <c r="B461" s="17"/>
       <c r="C461" s="36"/>
@@ -17815,7 +17815,7 @@
       <c r="Y461" s="2"/>
       <c r="Z461" s="2"/>
     </row>
-    <row r="462" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A462" s="16"/>
       <c r="B462" s="17"/>
       <c r="C462" s="36"/>
@@ -17843,7 +17843,7 @@
       <c r="Y462" s="2"/>
       <c r="Z462" s="2"/>
     </row>
-    <row r="463" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A463" s="16"/>
       <c r="B463" s="17"/>
       <c r="C463" s="36"/>
@@ -17871,7 +17871,7 @@
       <c r="Y463" s="2"/>
       <c r="Z463" s="2"/>
     </row>
-    <row r="464" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A464" s="16"/>
       <c r="B464" s="17"/>
       <c r="C464" s="36"/>
@@ -17899,7 +17899,7 @@
       <c r="Y464" s="2"/>
       <c r="Z464" s="2"/>
     </row>
-    <row r="465" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A465" s="16"/>
       <c r="B465" s="17"/>
       <c r="C465" s="36"/>
@@ -17927,7 +17927,7 @@
       <c r="Y465" s="2"/>
       <c r="Z465" s="2"/>
     </row>
-    <row r="466" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A466" s="16"/>
       <c r="B466" s="17"/>
       <c r="C466" s="36"/>
@@ -17955,7 +17955,7 @@
       <c r="Y466" s="2"/>
       <c r="Z466" s="2"/>
     </row>
-    <row r="467" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A467" s="16"/>
       <c r="B467" s="17"/>
       <c r="C467" s="36"/>
@@ -17983,7 +17983,7 @@
       <c r="Y467" s="2"/>
       <c r="Z467" s="2"/>
     </row>
-    <row r="468" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A468" s="16"/>
       <c r="B468" s="17"/>
       <c r="C468" s="36"/>
@@ -18011,7 +18011,7 @@
       <c r="Y468" s="2"/>
       <c r="Z468" s="2"/>
     </row>
-    <row r="469" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A469" s="16"/>
       <c r="B469" s="17"/>
       <c r="C469" s="36"/>
@@ -18039,7 +18039,7 @@
       <c r="Y469" s="2"/>
       <c r="Z469" s="2"/>
     </row>
-    <row r="470" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A470" s="16"/>
       <c r="B470" s="17"/>
       <c r="C470" s="36"/>
@@ -18067,7 +18067,7 @@
       <c r="Y470" s="2"/>
       <c r="Z470" s="2"/>
     </row>
-    <row r="471" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A471" s="16"/>
       <c r="B471" s="17"/>
       <c r="C471" s="36"/>
@@ -18095,7 +18095,7 @@
       <c r="Y471" s="2"/>
       <c r="Z471" s="2"/>
     </row>
-    <row r="472" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A472" s="16"/>
       <c r="B472" s="17"/>
       <c r="C472" s="36"/>
@@ -18123,7 +18123,7 @@
       <c r="Y472" s="2"/>
       <c r="Z472" s="2"/>
     </row>
-    <row r="473" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A473" s="16"/>
       <c r="B473" s="17"/>
       <c r="C473" s="36"/>
@@ -18151,7 +18151,7 @@
       <c r="Y473" s="2"/>
       <c r="Z473" s="2"/>
     </row>
-    <row r="474" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A474" s="16"/>
       <c r="B474" s="17"/>
       <c r="C474" s="36"/>
@@ -18179,7 +18179,7 @@
       <c r="Y474" s="2"/>
       <c r="Z474" s="2"/>
     </row>
-    <row r="475" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A475" s="16"/>
       <c r="B475" s="17"/>
       <c r="C475" s="36"/>
@@ -18207,7 +18207,7 @@
       <c r="Y475" s="2"/>
       <c r="Z475" s="2"/>
     </row>
-    <row r="476" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A476" s="16"/>
       <c r="B476" s="17"/>
       <c r="C476" s="36"/>
@@ -18235,7 +18235,7 @@
       <c r="Y476" s="2"/>
       <c r="Z476" s="2"/>
     </row>
-    <row r="477" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A477" s="16"/>
       <c r="B477" s="17"/>
       <c r="C477" s="36"/>
@@ -18263,7 +18263,7 @@
       <c r="Y477" s="2"/>
       <c r="Z477" s="2"/>
     </row>
-    <row r="478" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A478" s="16"/>
       <c r="B478" s="17"/>
       <c r="C478" s="36"/>
@@ -18291,7 +18291,7 @@
       <c r="Y478" s="2"/>
       <c r="Z478" s="2"/>
     </row>
-    <row r="479" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A479" s="16"/>
       <c r="B479" s="17"/>
       <c r="C479" s="36"/>
@@ -18319,7 +18319,7 @@
       <c r="Y479" s="2"/>
       <c r="Z479" s="2"/>
     </row>
-    <row r="480" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A480" s="16"/>
       <c r="B480" s="17"/>
       <c r="C480" s="36"/>
@@ -18347,7 +18347,7 @@
       <c r="Y480" s="2"/>
       <c r="Z480" s="2"/>
     </row>
-    <row r="481" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A481" s="16"/>
       <c r="B481" s="17"/>
       <c r="C481" s="36"/>
@@ -18375,7 +18375,7 @@
       <c r="Y481" s="2"/>
       <c r="Z481" s="2"/>
     </row>
-    <row r="482" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A482" s="16"/>
       <c r="B482" s="17"/>
       <c r="C482" s="36"/>
@@ -18403,7 +18403,7 @@
       <c r="Y482" s="2"/>
       <c r="Z482" s="2"/>
     </row>
-    <row r="483" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A483" s="16"/>
       <c r="B483" s="17"/>
       <c r="C483" s="36"/>
@@ -18431,7 +18431,7 @@
       <c r="Y483" s="2"/>
       <c r="Z483" s="2"/>
     </row>
-    <row r="484" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A484" s="16"/>
       <c r="B484" s="17"/>
       <c r="C484" s="36"/>
@@ -18459,7 +18459,7 @@
       <c r="Y484" s="2"/>
       <c r="Z484" s="2"/>
     </row>
-    <row r="485" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A485" s="16"/>
       <c r="B485" s="17"/>
       <c r="C485" s="36"/>
@@ -18487,7 +18487,7 @@
       <c r="Y485" s="2"/>
       <c r="Z485" s="2"/>
     </row>
-    <row r="486" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A486" s="16"/>
       <c r="B486" s="17"/>
       <c r="C486" s="36"/>
@@ -18515,7 +18515,7 @@
       <c r="Y486" s="2"/>
       <c r="Z486" s="2"/>
     </row>
-    <row r="487" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A487" s="16"/>
       <c r="B487" s="17"/>
       <c r="C487" s="36"/>
@@ -18543,7 +18543,7 @@
       <c r="Y487" s="2"/>
       <c r="Z487" s="2"/>
     </row>
-    <row r="488" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A488" s="16"/>
       <c r="B488" s="17"/>
       <c r="C488" s="36"/>
@@ -18571,7 +18571,7 @@
       <c r="Y488" s="2"/>
       <c r="Z488" s="2"/>
     </row>
-    <row r="489" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A489" s="16"/>
       <c r="B489" s="17"/>
       <c r="C489" s="36"/>
@@ -18599,7 +18599,7 @@
       <c r="Y489" s="2"/>
       <c r="Z489" s="2"/>
     </row>
-    <row r="490" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A490" s="16"/>
       <c r="B490" s="17"/>
       <c r="C490" s="36"/>
@@ -18627,7 +18627,7 @@
       <c r="Y490" s="2"/>
       <c r="Z490" s="2"/>
     </row>
-    <row r="491" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A491" s="16"/>
       <c r="B491" s="17"/>
       <c r="C491" s="36"/>
@@ -18655,7 +18655,7 @@
       <c r="Y491" s="2"/>
       <c r="Z491" s="2"/>
     </row>
-    <row r="492" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A492" s="16"/>
       <c r="B492" s="17"/>
       <c r="C492" s="36"/>
@@ -18683,7 +18683,7 @@
       <c r="Y492" s="2"/>
       <c r="Z492" s="2"/>
     </row>
-    <row r="493" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A493" s="16"/>
       <c r="B493" s="17"/>
       <c r="C493" s="36"/>
@@ -18711,7 +18711,7 @@
       <c r="Y493" s="2"/>
       <c r="Z493" s="2"/>
     </row>
-    <row r="494" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A494" s="16"/>
       <c r="B494" s="17"/>
       <c r="C494" s="36"/>
@@ -18739,7 +18739,7 @@
       <c r="Y494" s="2"/>
       <c r="Z494" s="2"/>
     </row>
-    <row r="495" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A495" s="16"/>
       <c r="B495" s="17"/>
       <c r="C495" s="36"/>
@@ -18767,7 +18767,7 @@
       <c r="Y495" s="2"/>
       <c r="Z495" s="2"/>
     </row>
-    <row r="496" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A496" s="16"/>
       <c r="B496" s="17"/>
       <c r="C496" s="36"/>
@@ -18795,7 +18795,7 @@
       <c r="Y496" s="2"/>
       <c r="Z496" s="2"/>
     </row>
-    <row r="497" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A497" s="16"/>
       <c r="B497" s="17"/>
       <c r="C497" s="36"/>
@@ -18823,7 +18823,7 @@
       <c r="Y497" s="2"/>
       <c r="Z497" s="2"/>
     </row>
-    <row r="498" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A498" s="16"/>
       <c r="B498" s="17"/>
       <c r="C498" s="36"/>
@@ -18851,7 +18851,7 @@
       <c r="Y498" s="2"/>
       <c r="Z498" s="2"/>
     </row>
-    <row r="499" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A499" s="16"/>
       <c r="B499" s="17"/>
       <c r="C499" s="36"/>
@@ -18879,7 +18879,7 @@
       <c r="Y499" s="2"/>
       <c r="Z499" s="2"/>
     </row>
-    <row r="500" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A500" s="16"/>
       <c r="B500" s="17"/>
       <c r="C500" s="36"/>
@@ -18907,7 +18907,7 @@
       <c r="Y500" s="2"/>
       <c r="Z500" s="2"/>
     </row>
-    <row r="501" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A501" s="16"/>
       <c r="B501" s="17"/>
       <c r="C501" s="36"/>
@@ -18935,7 +18935,7 @@
       <c r="Y501" s="2"/>
       <c r="Z501" s="2"/>
     </row>
-    <row r="502" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A502" s="16"/>
       <c r="B502" s="17"/>
       <c r="C502" s="36"/>
@@ -18963,7 +18963,7 @@
       <c r="Y502" s="2"/>
       <c r="Z502" s="2"/>
     </row>
-    <row r="503" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A503" s="16"/>
       <c r="B503" s="17"/>
       <c r="C503" s="36"/>
@@ -18991,7 +18991,7 @@
       <c r="Y503" s="2"/>
       <c r="Z503" s="2"/>
     </row>
-    <row r="504" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A504" s="16"/>
       <c r="B504" s="17"/>
       <c r="C504" s="36"/>
@@ -19019,7 +19019,7 @@
       <c r="Y504" s="2"/>
       <c r="Z504" s="2"/>
     </row>
-    <row r="505" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A505" s="16"/>
       <c r="B505" s="17"/>
       <c r="C505" s="36"/>
@@ -19047,7 +19047,7 @@
       <c r="Y505" s="2"/>
       <c r="Z505" s="2"/>
     </row>
-    <row r="506" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A506" s="16"/>
       <c r="B506" s="17"/>
       <c r="C506" s="36"/>
@@ -19075,7 +19075,7 @@
       <c r="Y506" s="2"/>
       <c r="Z506" s="2"/>
     </row>
-    <row r="507" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A507" s="16"/>
       <c r="B507" s="17"/>
       <c r="C507" s="36"/>
@@ -19103,7 +19103,7 @@
       <c r="Y507" s="2"/>
       <c r="Z507" s="2"/>
     </row>
-    <row r="508" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A508" s="16"/>
       <c r="B508" s="17"/>
       <c r="C508" s="36"/>
@@ -19131,7 +19131,7 @@
       <c r="Y508" s="2"/>
       <c r="Z508" s="2"/>
     </row>
-    <row r="509" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A509" s="16"/>
       <c r="B509" s="17"/>
       <c r="C509" s="36"/>
@@ -19159,7 +19159,7 @@
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
     </row>
-    <row r="510" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A510" s="16"/>
       <c r="B510" s="17"/>
       <c r="C510" s="36"/>
@@ -19187,7 +19187,7 @@
       <c r="Y510" s="2"/>
       <c r="Z510" s="2"/>
     </row>
-    <row r="511" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A511" s="16"/>
       <c r="B511" s="17"/>
       <c r="C511" s="36"/>
@@ -19215,7 +19215,7 @@
       <c r="Y511" s="2"/>
       <c r="Z511" s="2"/>
     </row>
-    <row r="512" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A512" s="16"/>
       <c r="B512" s="17"/>
       <c r="C512" s="36"/>
@@ -19243,7 +19243,7 @@
       <c r="Y512" s="2"/>
       <c r="Z512" s="2"/>
     </row>
-    <row r="513" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A513" s="16"/>
       <c r="B513" s="17"/>
       <c r="C513" s="36"/>
@@ -19271,7 +19271,7 @@
       <c r="Y513" s="2"/>
       <c r="Z513" s="2"/>
     </row>
-    <row r="514" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A514" s="16"/>
       <c r="B514" s="17"/>
       <c r="C514" s="36"/>
@@ -19299,7 +19299,7 @@
       <c r="Y514" s="2"/>
       <c r="Z514" s="2"/>
     </row>
-    <row r="515" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A515" s="16"/>
       <c r="B515" s="17"/>
       <c r="C515" s="36"/>
@@ -19327,7 +19327,7 @@
       <c r="Y515" s="2"/>
       <c r="Z515" s="2"/>
     </row>
-    <row r="516" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A516" s="16"/>
       <c r="B516" s="17"/>
       <c r="C516" s="36"/>
@@ -19355,7 +19355,7 @@
       <c r="Y516" s="2"/>
       <c r="Z516" s="2"/>
     </row>
-    <row r="517" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A517" s="16"/>
       <c r="B517" s="17"/>
       <c r="C517" s="36"/>
@@ -19383,7 +19383,7 @@
       <c r="Y517" s="2"/>
       <c r="Z517" s="2"/>
     </row>
-    <row r="518" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A518" s="16"/>
       <c r="B518" s="17"/>
       <c r="C518" s="36"/>
@@ -19411,7 +19411,7 @@
       <c r="Y518" s="2"/>
       <c r="Z518" s="2"/>
     </row>
-    <row r="519" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A519" s="16"/>
       <c r="B519" s="17"/>
       <c r="C519" s="36"/>
@@ -19439,7 +19439,7 @@
       <c r="Y519" s="2"/>
       <c r="Z519" s="2"/>
     </row>
-    <row r="520" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A520" s="16"/>
       <c r="B520" s="17"/>
       <c r="C520" s="36"/>
@@ -19467,7 +19467,7 @@
       <c r="Y520" s="2"/>
       <c r="Z520" s="2"/>
     </row>
-    <row r="521" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A521" s="16"/>
       <c r="B521" s="17"/>
       <c r="C521" s="36"/>
@@ -19495,7 +19495,7 @@
       <c r="Y521" s="2"/>
       <c r="Z521" s="2"/>
     </row>
-    <row r="522" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A522" s="16"/>
       <c r="B522" s="17"/>
       <c r="C522" s="36"/>
@@ -19523,7 +19523,7 @@
       <c r="Y522" s="2"/>
       <c r="Z522" s="2"/>
     </row>
-    <row r="523" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A523" s="16"/>
       <c r="B523" s="17"/>
       <c r="C523" s="36"/>
@@ -19551,7 +19551,7 @@
       <c r="Y523" s="2"/>
       <c r="Z523" s="2"/>
     </row>
-    <row r="524" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A524" s="16"/>
       <c r="B524" s="17"/>
       <c r="C524" s="36"/>
@@ -19579,7 +19579,7 @@
       <c r="Y524" s="2"/>
       <c r="Z524" s="2"/>
     </row>
-    <row r="525" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A525" s="16"/>
       <c r="B525" s="17"/>
       <c r="C525" s="36"/>
@@ -19607,7 +19607,7 @@
       <c r="Y525" s="2"/>
       <c r="Z525" s="2"/>
     </row>
-    <row r="526" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A526" s="16"/>
       <c r="B526" s="17"/>
       <c r="C526" s="36"/>
@@ -19635,7 +19635,7 @@
       <c r="Y526" s="2"/>
       <c r="Z526" s="2"/>
     </row>
-    <row r="527" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A527" s="16"/>
       <c r="B527" s="17"/>
       <c r="C527" s="36"/>
@@ -19663,7 +19663,7 @@
       <c r="Y527" s="2"/>
       <c r="Z527" s="2"/>
     </row>
-    <row r="528" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A528" s="16"/>
       <c r="B528" s="17"/>
       <c r="C528" s="36"/>
@@ -19691,7 +19691,7 @@
       <c r="Y528" s="2"/>
       <c r="Z528" s="2"/>
     </row>
-    <row r="529" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A529" s="16"/>
       <c r="B529" s="17"/>
       <c r="C529" s="36"/>
@@ -19719,7 +19719,7 @@
       <c r="Y529" s="2"/>
       <c r="Z529" s="2"/>
     </row>
-    <row r="530" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A530" s="16"/>
       <c r="B530" s="17"/>
       <c r="C530" s="36"/>
@@ -19747,7 +19747,7 @@
       <c r="Y530" s="2"/>
       <c r="Z530" s="2"/>
     </row>
-    <row r="531" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A531" s="16"/>
       <c r="B531" s="17"/>
       <c r="C531" s="36"/>
@@ -19775,7 +19775,7 @@
       <c r="Y531" s="2"/>
       <c r="Z531" s="2"/>
     </row>
-    <row r="532" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A532" s="16"/>
       <c r="B532" s="17"/>
       <c r="C532" s="36"/>
@@ -19803,7 +19803,7 @@
       <c r="Y532" s="2"/>
       <c r="Z532" s="2"/>
     </row>
-    <row r="533" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A533" s="16"/>
       <c r="B533" s="17"/>
       <c r="C533" s="36"/>
@@ -19831,7 +19831,7 @@
       <c r="Y533" s="2"/>
       <c r="Z533" s="2"/>
     </row>
-    <row r="534" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A534" s="16"/>
       <c r="B534" s="17"/>
       <c r="C534" s="36"/>
@@ -19859,7 +19859,7 @@
       <c r="Y534" s="2"/>
       <c r="Z534" s="2"/>
     </row>
-    <row r="535" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A535" s="16"/>
       <c r="B535" s="17"/>
       <c r="C535" s="36"/>
@@ -19887,7 +19887,7 @@
       <c r="Y535" s="2"/>
       <c r="Z535" s="2"/>
     </row>
-    <row r="536" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A536" s="16"/>
       <c r="B536" s="17"/>
       <c r="C536" s="36"/>
@@ -19915,7 +19915,7 @@
       <c r="Y536" s="2"/>
       <c r="Z536" s="2"/>
     </row>
-    <row r="537" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A537" s="16"/>
       <c r="B537" s="17"/>
       <c r="C537" s="36"/>
@@ -19943,7 +19943,7 @@
       <c r="Y537" s="2"/>
       <c r="Z537" s="2"/>
     </row>
-    <row r="538" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A538" s="16"/>
       <c r="B538" s="17"/>
       <c r="C538" s="36"/>
@@ -19971,7 +19971,7 @@
       <c r="Y538" s="2"/>
       <c r="Z538" s="2"/>
     </row>
-    <row r="539" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A539" s="16"/>
       <c r="B539" s="17"/>
       <c r="C539" s="36"/>
@@ -19999,7 +19999,7 @@
       <c r="Y539" s="2"/>
       <c r="Z539" s="2"/>
     </row>
-    <row r="540" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A540" s="16"/>
       <c r="B540" s="17"/>
       <c r="C540" s="36"/>
@@ -20027,7 +20027,7 @@
       <c r="Y540" s="2"/>
       <c r="Z540" s="2"/>
     </row>
-    <row r="541" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A541" s="16"/>
       <c r="B541" s="17"/>
       <c r="C541" s="36"/>
@@ -20055,7 +20055,7 @@
       <c r="Y541" s="2"/>
       <c r="Z541" s="2"/>
     </row>
-    <row r="542" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A542" s="16"/>
       <c r="B542" s="17"/>
       <c r="C542" s="36"/>
@@ -20083,7 +20083,7 @@
       <c r="Y542" s="2"/>
       <c r="Z542" s="2"/>
     </row>
-    <row r="543" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A543" s="16"/>
       <c r="B543" s="17"/>
       <c r="C543" s="36"/>
@@ -20111,7 +20111,7 @@
       <c r="Y543" s="2"/>
       <c r="Z543" s="2"/>
     </row>
-    <row r="544" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A544" s="16"/>
       <c r="B544" s="17"/>
       <c r="C544" s="36"/>
@@ -20139,7 +20139,7 @@
       <c r="Y544" s="2"/>
       <c r="Z544" s="2"/>
     </row>
-    <row r="545" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A545" s="16"/>
       <c r="B545" s="17"/>
       <c r="C545" s="36"/>
@@ -20167,7 +20167,7 @@
       <c r="Y545" s="2"/>
       <c r="Z545" s="2"/>
     </row>
-    <row r="546" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A546" s="16"/>
       <c r="B546" s="17"/>
       <c r="C546" s="36"/>
@@ -20195,7 +20195,7 @@
       <c r="Y546" s="2"/>
       <c r="Z546" s="2"/>
     </row>
-    <row r="547" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A547" s="16"/>
       <c r="B547" s="17"/>
       <c r="C547" s="36"/>
@@ -20223,7 +20223,7 @@
       <c r="Y547" s="2"/>
       <c r="Z547" s="2"/>
     </row>
-    <row r="548" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A548" s="16"/>
       <c r="B548" s="17"/>
       <c r="C548" s="36"/>
@@ -20251,7 +20251,7 @@
       <c r="Y548" s="2"/>
       <c r="Z548" s="2"/>
     </row>
-    <row r="549" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A549" s="16"/>
       <c r="B549" s="17"/>
       <c r="C549" s="36"/>
@@ -20279,7 +20279,7 @@
       <c r="Y549" s="2"/>
       <c r="Z549" s="2"/>
     </row>
-    <row r="550" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A550" s="16"/>
       <c r="B550" s="17"/>
       <c r="C550" s="36"/>
@@ -20307,7 +20307,7 @@
       <c r="Y550" s="2"/>
       <c r="Z550" s="2"/>
     </row>
-    <row r="551" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A551" s="16"/>
       <c r="B551" s="17"/>
       <c r="C551" s="36"/>
@@ -20335,7 +20335,7 @@
       <c r="Y551" s="2"/>
       <c r="Z551" s="2"/>
     </row>
-    <row r="552" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A552" s="16"/>
       <c r="B552" s="17"/>
       <c r="C552" s="36"/>
@@ -20363,7 +20363,7 @@
       <c r="Y552" s="2"/>
       <c r="Z552" s="2"/>
     </row>
-    <row r="553" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A553" s="16"/>
       <c r="B553" s="17"/>
       <c r="C553" s="36"/>
@@ -20391,7 +20391,7 @@
       <c r="Y553" s="2"/>
       <c r="Z553" s="2"/>
     </row>
-    <row r="554" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A554" s="16"/>
       <c r="B554" s="17"/>
       <c r="C554" s="36"/>
@@ -20419,7 +20419,7 @@
       <c r="Y554" s="2"/>
       <c r="Z554" s="2"/>
     </row>
-    <row r="555" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A555" s="16"/>
       <c r="B555" s="17"/>
       <c r="C555" s="36"/>
@@ -20447,7 +20447,7 @@
       <c r="Y555" s="2"/>
       <c r="Z555" s="2"/>
     </row>
-    <row r="556" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A556" s="16"/>
       <c r="B556" s="17"/>
       <c r="C556" s="36"/>
@@ -20475,7 +20475,7 @@
       <c r="Y556" s="2"/>
       <c r="Z556" s="2"/>
     </row>
-    <row r="557" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A557" s="16"/>
       <c r="B557" s="17"/>
       <c r="C557" s="36"/>
@@ -20503,7 +20503,7 @@
       <c r="Y557" s="2"/>
       <c r="Z557" s="2"/>
     </row>
-    <row r="558" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A558" s="16"/>
       <c r="B558" s="17"/>
       <c r="C558" s="36"/>
@@ -20531,7 +20531,7 @@
       <c r="Y558" s="2"/>
       <c r="Z558" s="2"/>
     </row>
-    <row r="559" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A559" s="16"/>
       <c r="B559" s="17"/>
       <c r="C559" s="36"/>
@@ -20559,7 +20559,7 @@
       <c r="Y559" s="2"/>
       <c r="Z559" s="2"/>
     </row>
-    <row r="560" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A560" s="16"/>
       <c r="B560" s="17"/>
       <c r="C560" s="36"/>
@@ -20587,7 +20587,7 @@
       <c r="Y560" s="2"/>
       <c r="Z560" s="2"/>
     </row>
-    <row r="561" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A561" s="16"/>
       <c r="B561" s="17"/>
       <c r="C561" s="36"/>
@@ -20615,7 +20615,7 @@
       <c r="Y561" s="2"/>
       <c r="Z561" s="2"/>
     </row>
-    <row r="562" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A562" s="16"/>
       <c r="B562" s="17"/>
       <c r="C562" s="36"/>
@@ -20643,7 +20643,7 @@
       <c r="Y562" s="2"/>
       <c r="Z562" s="2"/>
     </row>
-    <row r="563" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A563" s="16"/>
       <c r="B563" s="17"/>
       <c r="C563" s="36"/>
@@ -20671,7 +20671,7 @@
       <c r="Y563" s="2"/>
       <c r="Z563" s="2"/>
     </row>
-    <row r="564" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A564" s="16"/>
       <c r="B564" s="17"/>
       <c r="C564" s="36"/>
@@ -20699,7 +20699,7 @@
       <c r="Y564" s="2"/>
       <c r="Z564" s="2"/>
     </row>
-    <row r="565" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A565" s="16"/>
       <c r="B565" s="17"/>
       <c r="C565" s="36"/>
@@ -20727,7 +20727,7 @@
       <c r="Y565" s="2"/>
       <c r="Z565" s="2"/>
     </row>
-    <row r="566" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A566" s="16"/>
       <c r="B566" s="17"/>
       <c r="C566" s="36"/>
@@ -20755,7 +20755,7 @@
       <c r="Y566" s="2"/>
       <c r="Z566" s="2"/>
     </row>
-    <row r="567" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A567" s="16"/>
       <c r="B567" s="17"/>
       <c r="C567" s="36"/>
@@ -20783,7 +20783,7 @@
       <c r="Y567" s="2"/>
       <c r="Z567" s="2"/>
     </row>
-    <row r="568" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A568" s="16"/>
       <c r="B568" s="17"/>
       <c r="C568" s="36"/>
@@ -20811,7 +20811,7 @@
       <c r="Y568" s="2"/>
       <c r="Z568" s="2"/>
     </row>
-    <row r="569" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A569" s="16"/>
       <c r="B569" s="17"/>
       <c r="C569" s="36"/>
@@ -20839,7 +20839,7 @@
       <c r="Y569" s="2"/>
       <c r="Z569" s="2"/>
     </row>
-    <row r="570" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A570" s="16"/>
       <c r="B570" s="17"/>
       <c r="C570" s="36"/>
@@ -20867,7 +20867,7 @@
       <c r="Y570" s="2"/>
       <c r="Z570" s="2"/>
     </row>
-    <row r="571" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A571" s="16"/>
       <c r="B571" s="17"/>
       <c r="C571" s="36"/>
@@ -20895,7 +20895,7 @@
       <c r="Y571" s="2"/>
       <c r="Z571" s="2"/>
     </row>
-    <row r="572" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A572" s="16"/>
       <c r="B572" s="17"/>
       <c r="C572" s="36"/>
@@ -20923,7 +20923,7 @@
       <c r="Y572" s="2"/>
       <c r="Z572" s="2"/>
     </row>
-    <row r="573" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A573" s="16"/>
       <c r="B573" s="17"/>
       <c r="C573" s="36"/>
@@ -20951,7 +20951,7 @@
       <c r="Y573" s="2"/>
       <c r="Z573" s="2"/>
     </row>
-    <row r="574" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A574" s="16"/>
       <c r="B574" s="17"/>
       <c r="C574" s="36"/>
@@ -20979,7 +20979,7 @@
       <c r="Y574" s="2"/>
       <c r="Z574" s="2"/>
     </row>
-    <row r="575" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A575" s="16"/>
       <c r="B575" s="17"/>
       <c r="C575" s="36"/>
@@ -21007,7 +21007,7 @@
       <c r="Y575" s="2"/>
       <c r="Z575" s="2"/>
     </row>
-    <row r="576" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A576" s="16"/>
       <c r="B576" s="17"/>
       <c r="C576" s="36"/>
@@ -21035,7 +21035,7 @@
       <c r="Y576" s="2"/>
       <c r="Z576" s="2"/>
     </row>
-    <row r="577" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A577" s="16"/>
       <c r="B577" s="17"/>
       <c r="C577" s="36"/>
@@ -21063,7 +21063,7 @@
       <c r="Y577" s="2"/>
       <c r="Z577" s="2"/>
     </row>
-    <row r="578" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A578" s="16"/>
       <c r="B578" s="17"/>
       <c r="C578" s="36"/>
@@ -21091,7 +21091,7 @@
       <c r="Y578" s="2"/>
       <c r="Z578" s="2"/>
     </row>
-    <row r="579" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A579" s="16"/>
       <c r="B579" s="17"/>
       <c r="C579" s="36"/>
@@ -21119,7 +21119,7 @@
       <c r="Y579" s="2"/>
       <c r="Z579" s="2"/>
     </row>
-    <row r="580" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A580" s="16"/>
       <c r="B580" s="17"/>
       <c r="C580" s="36"/>
@@ -21147,7 +21147,7 @@
       <c r="Y580" s="2"/>
       <c r="Z580" s="2"/>
     </row>
-    <row r="581" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A581" s="16"/>
       <c r="B581" s="17"/>
       <c r="C581" s="36"/>
@@ -21175,7 +21175,7 @@
       <c r="Y581" s="2"/>
       <c r="Z581" s="2"/>
     </row>
-    <row r="582" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A582" s="16"/>
       <c r="B582" s="17"/>
       <c r="C582" s="36"/>
@@ -21203,7 +21203,7 @@
       <c r="Y582" s="2"/>
       <c r="Z582" s="2"/>
     </row>
-    <row r="583" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A583" s="16"/>
       <c r="B583" s="17"/>
       <c r="C583" s="36"/>
@@ -21231,7 +21231,7 @@
       <c r="Y583" s="2"/>
       <c r="Z583" s="2"/>
     </row>
-    <row r="584" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A584" s="16"/>
       <c r="B584" s="17"/>
       <c r="C584" s="36"/>
@@ -21259,7 +21259,7 @@
       <c r="Y584" s="2"/>
       <c r="Z584" s="2"/>
     </row>
-    <row r="585" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A585" s="16"/>
       <c r="B585" s="17"/>
       <c r="C585" s="36"/>
@@ -21287,7 +21287,7 @@
       <c r="Y585" s="2"/>
       <c r="Z585" s="2"/>
     </row>
-    <row r="586" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A586" s="16"/>
       <c r="B586" s="17"/>
       <c r="C586" s="36"/>
@@ -21315,7 +21315,7 @@
       <c r="Y586" s="2"/>
       <c r="Z586" s="2"/>
     </row>
-    <row r="587" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A587" s="16"/>
       <c r="B587" s="17"/>
       <c r="C587" s="36"/>
@@ -21343,7 +21343,7 @@
       <c r="Y587" s="2"/>
       <c r="Z587" s="2"/>
     </row>
-    <row r="588" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A588" s="16"/>
       <c r="B588" s="17"/>
       <c r="C588" s="36"/>
@@ -21371,7 +21371,7 @@
       <c r="Y588" s="2"/>
       <c r="Z588" s="2"/>
     </row>
-    <row r="589" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A589" s="16"/>
       <c r="B589" s="17"/>
       <c r="C589" s="36"/>
@@ -21399,7 +21399,7 @@
       <c r="Y589" s="2"/>
       <c r="Z589" s="2"/>
     </row>
-    <row r="590" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A590" s="16"/>
       <c r="B590" s="17"/>
       <c r="C590" s="36"/>
@@ -21427,7 +21427,7 @@
       <c r="Y590" s="2"/>
       <c r="Z590" s="2"/>
     </row>
-    <row r="591" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A591" s="16"/>
       <c r="B591" s="17"/>
       <c r="C591" s="36"/>
@@ -21455,7 +21455,7 @@
       <c r="Y591" s="2"/>
       <c r="Z591" s="2"/>
     </row>
-    <row r="592" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A592" s="16"/>
       <c r="B592" s="17"/>
       <c r="C592" s="36"/>
@@ -21483,7 +21483,7 @@
       <c r="Y592" s="2"/>
       <c r="Z592" s="2"/>
     </row>
-    <row r="593" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A593" s="16"/>
       <c r="B593" s="17"/>
       <c r="C593" s="36"/>
@@ -21511,7 +21511,7 @@
       <c r="Y593" s="2"/>
       <c r="Z593" s="2"/>
     </row>
-    <row r="594" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A594" s="16"/>
       <c r="B594" s="17"/>
       <c r="C594" s="36"/>
@@ -21539,7 +21539,7 @@
       <c r="Y594" s="2"/>
       <c r="Z594" s="2"/>
     </row>
-    <row r="595" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A595" s="16"/>
       <c r="B595" s="17"/>
       <c r="C595" s="36"/>
@@ -21567,7 +21567,7 @@
       <c r="Y595" s="2"/>
       <c r="Z595" s="2"/>
     </row>
-    <row r="596" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A596" s="16"/>
       <c r="B596" s="17"/>
       <c r="C596" s="36"/>
@@ -21595,7 +21595,7 @@
       <c r="Y596" s="2"/>
       <c r="Z596" s="2"/>
     </row>
-    <row r="597" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A597" s="16"/>
       <c r="B597" s="17"/>
       <c r="C597" s="36"/>
@@ -21623,7 +21623,7 @@
       <c r="Y597" s="2"/>
       <c r="Z597" s="2"/>
     </row>
-    <row r="598" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A598" s="16"/>
       <c r="B598" s="17"/>
       <c r="C598" s="36"/>
@@ -21651,7 +21651,7 @@
       <c r="Y598" s="2"/>
       <c r="Z598" s="2"/>
     </row>
-    <row r="599" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A599" s="16"/>
       <c r="B599" s="17"/>
       <c r="C599" s="36"/>
@@ -21679,7 +21679,7 @@
       <c r="Y599" s="2"/>
       <c r="Z599" s="2"/>
     </row>
-    <row r="600" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A600" s="16"/>
       <c r="B600" s="17"/>
       <c r="C600" s="36"/>
@@ -21707,7 +21707,7 @@
       <c r="Y600" s="2"/>
       <c r="Z600" s="2"/>
     </row>
-    <row r="601" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A601" s="16"/>
       <c r="B601" s="17"/>
       <c r="C601" s="36"/>
@@ -21735,7 +21735,7 @@
       <c r="Y601" s="2"/>
       <c r="Z601" s="2"/>
     </row>
-    <row r="602" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A602" s="16"/>
       <c r="B602" s="17"/>
       <c r="C602" s="36"/>
@@ -21763,7 +21763,7 @@
       <c r="Y602" s="2"/>
       <c r="Z602" s="2"/>
     </row>
-    <row r="603" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A603" s="16"/>
       <c r="B603" s="17"/>
       <c r="C603" s="36"/>
@@ -21791,7 +21791,7 @@
       <c r="Y603" s="2"/>
       <c r="Z603" s="2"/>
     </row>
-    <row r="604" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A604" s="16"/>
       <c r="B604" s="17"/>
       <c r="C604" s="36"/>
@@ -21819,7 +21819,7 @@
       <c r="Y604" s="2"/>
       <c r="Z604" s="2"/>
     </row>
-    <row r="605" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A605" s="16"/>
       <c r="B605" s="17"/>
       <c r="C605" s="36"/>
@@ -21847,7 +21847,7 @@
       <c r="Y605" s="2"/>
       <c r="Z605" s="2"/>
     </row>
-    <row r="606" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A606" s="16"/>
       <c r="B606" s="17"/>
       <c r="C606" s="36"/>
@@ -21875,7 +21875,7 @@
       <c r="Y606" s="2"/>
       <c r="Z606" s="2"/>
     </row>
-    <row r="607" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A607" s="16"/>
       <c r="B607" s="17"/>
       <c r="C607" s="36"/>
@@ -21903,7 +21903,7 @@
       <c r="Y607" s="2"/>
       <c r="Z607" s="2"/>
     </row>
-    <row r="608" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A608" s="16"/>
       <c r="B608" s="17"/>
       <c r="C608" s="36"/>
@@ -21931,7 +21931,7 @@
       <c r="Y608" s="2"/>
       <c r="Z608" s="2"/>
     </row>
-    <row r="609" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A609" s="16"/>
       <c r="B609" s="17"/>
       <c r="C609" s="36"/>
@@ -21959,7 +21959,7 @@
       <c r="Y609" s="2"/>
       <c r="Z609" s="2"/>
     </row>
-    <row r="610" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A610" s="16"/>
       <c r="B610" s="17"/>
       <c r="C610" s="36"/>
@@ -21987,7 +21987,7 @@
       <c r="Y610" s="2"/>
       <c r="Z610" s="2"/>
     </row>
-    <row r="611" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A611" s="16"/>
       <c r="B611" s="17"/>
       <c r="C611" s="36"/>
@@ -22015,7 +22015,7 @@
       <c r="Y611" s="2"/>
       <c r="Z611" s="2"/>
     </row>
-    <row r="612" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A612" s="16"/>
       <c r="B612" s="17"/>
       <c r="C612" s="36"/>
@@ -22043,7 +22043,7 @@
       <c r="Y612" s="2"/>
       <c r="Z612" s="2"/>
     </row>
-    <row r="613" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A613" s="16"/>
       <c r="B613" s="17"/>
       <c r="C613" s="36"/>
@@ -22071,7 +22071,7 @@
       <c r="Y613" s="2"/>
       <c r="Z613" s="2"/>
     </row>
-    <row r="614" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A614" s="16"/>
       <c r="B614" s="17"/>
       <c r="C614" s="36"/>
@@ -22099,7 +22099,7 @@
       <c r="Y614" s="2"/>
       <c r="Z614" s="2"/>
     </row>
-    <row r="615" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A615" s="16"/>
       <c r="B615" s="17"/>
       <c r="C615" s="36"/>
@@ -22127,7 +22127,7 @@
       <c r="Y615" s="2"/>
       <c r="Z615" s="2"/>
     </row>
-    <row r="616" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A616" s="16"/>
       <c r="B616" s="17"/>
       <c r="C616" s="36"/>
@@ -22155,7 +22155,7 @@
       <c r="Y616" s="2"/>
       <c r="Z616" s="2"/>
     </row>
-    <row r="617" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A617" s="16"/>
       <c r="B617" s="17"/>
       <c r="C617" s="36"/>
@@ -22183,7 +22183,7 @@
       <c r="Y617" s="2"/>
       <c r="Z617" s="2"/>
     </row>
-    <row r="618" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A618" s="16"/>
       <c r="B618" s="17"/>
       <c r="C618" s="36"/>
@@ -22211,7 +22211,7 @@
       <c r="Y618" s="2"/>
       <c r="Z618" s="2"/>
     </row>
-    <row r="619" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A619" s="16"/>
       <c r="B619" s="17"/>
       <c r="C619" s="36"/>
@@ -22239,7 +22239,7 @@
       <c r="Y619" s="2"/>
       <c r="Z619" s="2"/>
     </row>
-    <row r="620" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A620" s="16"/>
       <c r="B620" s="17"/>
       <c r="C620" s="36"/>
@@ -22267,7 +22267,7 @@
       <c r="Y620" s="2"/>
       <c r="Z620" s="2"/>
     </row>
-    <row r="621" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A621" s="16"/>
       <c r="B621" s="17"/>
       <c r="C621" s="36"/>
@@ -22295,7 +22295,7 @@
       <c r="Y621" s="2"/>
       <c r="Z621" s="2"/>
     </row>
-    <row r="622" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A622" s="16"/>
       <c r="B622" s="17"/>
       <c r="C622" s="36"/>
@@ -22323,7 +22323,7 @@
       <c r="Y622" s="2"/>
       <c r="Z622" s="2"/>
     </row>
-    <row r="623" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A623" s="16"/>
       <c r="B623" s="17"/>
       <c r="C623" s="36"/>
@@ -22351,7 +22351,7 @@
       <c r="Y623" s="2"/>
       <c r="Z623" s="2"/>
     </row>
-    <row r="624" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A624" s="16"/>
       <c r="B624" s="17"/>
       <c r="C624" s="36"/>
@@ -22379,7 +22379,7 @@
       <c r="Y624" s="2"/>
       <c r="Z624" s="2"/>
     </row>
-    <row r="625" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A625" s="16"/>
       <c r="B625" s="17"/>
       <c r="C625" s="36"/>
@@ -22407,7 +22407,7 @@
       <c r="Y625" s="2"/>
       <c r="Z625" s="2"/>
     </row>
-    <row r="626" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A626" s="16"/>
       <c r="B626" s="17"/>
       <c r="C626" s="36"/>
@@ -22435,7 +22435,7 @@
       <c r="Y626" s="2"/>
       <c r="Z626" s="2"/>
     </row>
-    <row r="627" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A627" s="16"/>
       <c r="B627" s="17"/>
       <c r="C627" s="36"/>
@@ -22463,7 +22463,7 @@
       <c r="Y627" s="2"/>
       <c r="Z627" s="2"/>
     </row>
-    <row r="628" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A628" s="16"/>
       <c r="B628" s="17"/>
       <c r="C628" s="36"/>
@@ -22491,7 +22491,7 @@
       <c r="Y628" s="2"/>
       <c r="Z628" s="2"/>
     </row>
-    <row r="629" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A629" s="16"/>
       <c r="B629" s="17"/>
       <c r="C629" s="36"/>
@@ -22519,7 +22519,7 @@
       <c r="Y629" s="2"/>
       <c r="Z629" s="2"/>
     </row>
-    <row r="630" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A630" s="16"/>
       <c r="B630" s="17"/>
       <c r="C630" s="36"/>
@@ -22547,7 +22547,7 @@
       <c r="Y630" s="2"/>
       <c r="Z630" s="2"/>
     </row>
-    <row r="631" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A631" s="16"/>
       <c r="B631" s="17"/>
       <c r="C631" s="36"/>
@@ -22575,7 +22575,7 @@
       <c r="Y631" s="2"/>
       <c r="Z631" s="2"/>
     </row>
-    <row r="632" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A632" s="16"/>
       <c r="B632" s="17"/>
       <c r="C632" s="36"/>
@@ -22603,7 +22603,7 @@
       <c r="Y632" s="2"/>
       <c r="Z632" s="2"/>
     </row>
-    <row r="633" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A633" s="16"/>
       <c r="B633" s="17"/>
       <c r="C633" s="36"/>
@@ -22631,7 +22631,7 @@
       <c r="Y633" s="2"/>
       <c r="Z633" s="2"/>
     </row>
-    <row r="634" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A634" s="16"/>
       <c r="B634" s="17"/>
       <c r="C634" s="36"/>
@@ -22659,7 +22659,7 @@
       <c r="Y634" s="2"/>
       <c r="Z634" s="2"/>
     </row>
-    <row r="635" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A635" s="16"/>
       <c r="B635" s="17"/>
       <c r="C635" s="36"/>
@@ -22687,7 +22687,7 @@
       <c r="Y635" s="2"/>
       <c r="Z635" s="2"/>
     </row>
-    <row r="636" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A636" s="16"/>
       <c r="B636" s="17"/>
       <c r="C636" s="36"/>
@@ -22715,7 +22715,7 @@
       <c r="Y636" s="2"/>
       <c r="Z636" s="2"/>
     </row>
-    <row r="637" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A637" s="16"/>
       <c r="B637" s="17"/>
       <c r="C637" s="36"/>
@@ -22743,7 +22743,7 @@
       <c r="Y637" s="2"/>
       <c r="Z637" s="2"/>
     </row>
-    <row r="638" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A638" s="16"/>
       <c r="B638" s="17"/>
       <c r="C638" s="36"/>
@@ -22771,7 +22771,7 @@
       <c r="Y638" s="2"/>
       <c r="Z638" s="2"/>
     </row>
-    <row r="639" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A639" s="16"/>
       <c r="B639" s="17"/>
       <c r="C639" s="36"/>
@@ -22799,7 +22799,7 @@
       <c r="Y639" s="2"/>
       <c r="Z639" s="2"/>
     </row>
-    <row r="640" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A640" s="16"/>
       <c r="B640" s="17"/>
       <c r="C640" s="36"/>
@@ -22827,7 +22827,7 @@
       <c r="Y640" s="2"/>
       <c r="Z640" s="2"/>
     </row>
-    <row r="641" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A641" s="16"/>
       <c r="B641" s="17"/>
       <c r="C641" s="36"/>
@@ -22855,7 +22855,7 @@
       <c r="Y641" s="2"/>
       <c r="Z641" s="2"/>
     </row>
-    <row r="642" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A642" s="16"/>
       <c r="B642" s="17"/>
       <c r="C642" s="36"/>
@@ -22883,7 +22883,7 @@
       <c r="Y642" s="2"/>
       <c r="Z642" s="2"/>
     </row>
-    <row r="643" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A643" s="16"/>
       <c r="B643" s="17"/>
       <c r="C643" s="36"/>
@@ -22911,7 +22911,7 @@
       <c r="Y643" s="2"/>
       <c r="Z643" s="2"/>
     </row>
-    <row r="644" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A644" s="16"/>
       <c r="B644" s="17"/>
       <c r="C644" s="36"/>
@@ -22939,7 +22939,7 @@
       <c r="Y644" s="2"/>
       <c r="Z644" s="2"/>
     </row>
-    <row r="645" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A645" s="16"/>
       <c r="B645" s="17"/>
       <c r="C645" s="36"/>
@@ -22967,7 +22967,7 @@
       <c r="Y645" s="2"/>
       <c r="Z645" s="2"/>
     </row>
-    <row r="646" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A646" s="16"/>
       <c r="B646" s="17"/>
       <c r="C646" s="36"/>
@@ -22995,7 +22995,7 @@
       <c r="Y646" s="2"/>
       <c r="Z646" s="2"/>
     </row>
-    <row r="647" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A647" s="16"/>
       <c r="B647" s="17"/>
       <c r="C647" s="36"/>
@@ -23023,7 +23023,7 @@
       <c r="Y647" s="2"/>
       <c r="Z647" s="2"/>
     </row>
-    <row r="648" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A648" s="16"/>
       <c r="B648" s="17"/>
       <c r="C648" s="36"/>
@@ -23051,7 +23051,7 @@
       <c r="Y648" s="2"/>
       <c r="Z648" s="2"/>
     </row>
-    <row r="649" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A649" s="16"/>
       <c r="B649" s="17"/>
       <c r="C649" s="36"/>
@@ -23079,7 +23079,7 @@
       <c r="Y649" s="2"/>
       <c r="Z649" s="2"/>
     </row>
-    <row r="650" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A650" s="16"/>
       <c r="B650" s="17"/>
       <c r="C650" s="36"/>
@@ -23107,7 +23107,7 @@
       <c r="Y650" s="2"/>
       <c r="Z650" s="2"/>
     </row>
-    <row r="651" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A651" s="16"/>
       <c r="B651" s="17"/>
       <c r="C651" s="36"/>
@@ -23135,7 +23135,7 @@
       <c r="Y651" s="2"/>
       <c r="Z651" s="2"/>
     </row>
-    <row r="652" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A652" s="16"/>
       <c r="B652" s="17"/>
       <c r="C652" s="36"/>
@@ -23163,7 +23163,7 @@
       <c r="Y652" s="2"/>
       <c r="Z652" s="2"/>
     </row>
-    <row r="653" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A653" s="16"/>
       <c r="B653" s="17"/>
       <c r="C653" s="36"/>
@@ -23191,7 +23191,7 @@
       <c r="Y653" s="2"/>
       <c r="Z653" s="2"/>
     </row>
-    <row r="654" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A654" s="16"/>
       <c r="B654" s="17"/>
       <c r="C654" s="36"/>
@@ -23219,7 +23219,7 @@
       <c r="Y654" s="2"/>
       <c r="Z654" s="2"/>
     </row>
-    <row r="655" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A655" s="16"/>
       <c r="B655" s="17"/>
       <c r="C655" s="36"/>
@@ -23247,7 +23247,7 @@
       <c r="Y655" s="2"/>
       <c r="Z655" s="2"/>
     </row>
-    <row r="656" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A656" s="16"/>
       <c r="B656" s="17"/>
       <c r="C656" s="36"/>
@@ -23275,7 +23275,7 @@
       <c r="Y656" s="2"/>
       <c r="Z656" s="2"/>
     </row>
-    <row r="657" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A657" s="16"/>
       <c r="B657" s="17"/>
       <c r="C657" s="36"/>
@@ -23303,7 +23303,7 @@
       <c r="Y657" s="2"/>
       <c r="Z657" s="2"/>
     </row>
-    <row r="658" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A658" s="16"/>
       <c r="B658" s="17"/>
       <c r="C658" s="36"/>
@@ -23331,7 +23331,7 @@
       <c r="Y658" s="2"/>
       <c r="Z658" s="2"/>
     </row>
-    <row r="659" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A659" s="16"/>
       <c r="B659" s="17"/>
       <c r="C659" s="36"/>
@@ -23359,7 +23359,7 @@
       <c r="Y659" s="2"/>
       <c r="Z659" s="2"/>
     </row>
-    <row r="660" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A660" s="16"/>
       <c r="B660" s="17"/>
       <c r="C660" s="36"/>
@@ -23387,7 +23387,7 @@
       <c r="Y660" s="2"/>
       <c r="Z660" s="2"/>
     </row>
-    <row r="661" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A661" s="16"/>
       <c r="B661" s="17"/>
       <c r="C661" s="36"/>
@@ -23415,7 +23415,7 @@
       <c r="Y661" s="2"/>
       <c r="Z661" s="2"/>
     </row>
-    <row r="662" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A662" s="16"/>
       <c r="B662" s="17"/>
       <c r="C662" s="36"/>
@@ -23443,7 +23443,7 @@
       <c r="Y662" s="2"/>
       <c r="Z662" s="2"/>
     </row>
-    <row r="663" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A663" s="16"/>
       <c r="B663" s="17"/>
       <c r="C663" s="36"/>
@@ -23471,7 +23471,7 @@
       <c r="Y663" s="2"/>
       <c r="Z663" s="2"/>
     </row>
-    <row r="664" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A664" s="16"/>
       <c r="B664" s="17"/>
       <c r="C664" s="36"/>
@@ -23499,7 +23499,7 @@
       <c r="Y664" s="2"/>
       <c r="Z664" s="2"/>
     </row>
-    <row r="665" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A665" s="16"/>
       <c r="B665" s="17"/>
       <c r="C665" s="36"/>
@@ -23527,7 +23527,7 @@
       <c r="Y665" s="2"/>
       <c r="Z665" s="2"/>
     </row>
-    <row r="666" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A666" s="16"/>
       <c r="B666" s="17"/>
       <c r="C666" s="36"/>
@@ -23555,7 +23555,7 @@
       <c r="Y666" s="2"/>
       <c r="Z666" s="2"/>
     </row>
-    <row r="667" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A667" s="16"/>
       <c r="B667" s="17"/>
       <c r="C667" s="36"/>
@@ -23583,7 +23583,7 @@
       <c r="Y667" s="2"/>
       <c r="Z667" s="2"/>
     </row>
-    <row r="668" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A668" s="16"/>
       <c r="B668" s="17"/>
       <c r="C668" s="36"/>
@@ -23611,7 +23611,7 @@
       <c r="Y668" s="2"/>
       <c r="Z668" s="2"/>
     </row>
-    <row r="669" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A669" s="16"/>
       <c r="B669" s="17"/>
       <c r="C669" s="36"/>
@@ -23639,7 +23639,7 @@
       <c r="Y669" s="2"/>
       <c r="Z669" s="2"/>
     </row>
-    <row r="670" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A670" s="16"/>
       <c r="B670" s="17"/>
       <c r="C670" s="36"/>
@@ -23667,7 +23667,7 @@
       <c r="Y670" s="2"/>
       <c r="Z670" s="2"/>
     </row>
-    <row r="671" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A671" s="16"/>
       <c r="B671" s="17"/>
       <c r="C671" s="36"/>
@@ -23695,7 +23695,7 @@
       <c r="Y671" s="2"/>
       <c r="Z671" s="2"/>
     </row>
-    <row r="672" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A672" s="16"/>
       <c r="B672" s="17"/>
       <c r="C672" s="36"/>
@@ -23723,7 +23723,7 @@
       <c r="Y672" s="2"/>
       <c r="Z672" s="2"/>
     </row>
-    <row r="673" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A673" s="16"/>
       <c r="B673" s="17"/>
       <c r="C673" s="36"/>
@@ -23751,7 +23751,7 @@
       <c r="Y673" s="2"/>
       <c r="Z673" s="2"/>
     </row>
-    <row r="674" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A674" s="16"/>
       <c r="B674" s="17"/>
       <c r="C674" s="36"/>
@@ -23779,7 +23779,7 @@
       <c r="Y674" s="2"/>
       <c r="Z674" s="2"/>
     </row>
-    <row r="675" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A675" s="16"/>
       <c r="B675" s="17"/>
       <c r="C675" s="36"/>
@@ -23807,7 +23807,7 @@
       <c r="Y675" s="2"/>
       <c r="Z675" s="2"/>
     </row>
-    <row r="676" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A676" s="16"/>
       <c r="B676" s="17"/>
       <c r="C676" s="36"/>
@@ -23835,7 +23835,7 @@
       <c r="Y676" s="2"/>
       <c r="Z676" s="2"/>
     </row>
-    <row r="677" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A677" s="16"/>
       <c r="B677" s="17"/>
       <c r="C677" s="36"/>
@@ -23863,7 +23863,7 @@
       <c r="Y677" s="2"/>
       <c r="Z677" s="2"/>
     </row>
-    <row r="678" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A678" s="16"/>
       <c r="B678" s="17"/>
       <c r="C678" s="36"/>
@@ -23891,7 +23891,7 @@
       <c r="Y678" s="2"/>
       <c r="Z678" s="2"/>
     </row>
-    <row r="679" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A679" s="16"/>
       <c r="B679" s="17"/>
       <c r="C679" s="36"/>
@@ -23919,7 +23919,7 @@
       <c r="Y679" s="2"/>
       <c r="Z679" s="2"/>
     </row>
-    <row r="680" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A680" s="16"/>
       <c r="B680" s="17"/>
       <c r="C680" s="36"/>
@@ -23947,7 +23947,7 @@
       <c r="Y680" s="2"/>
       <c r="Z680" s="2"/>
     </row>
-    <row r="681" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A681" s="16"/>
       <c r="B681" s="17"/>
       <c r="C681" s="36"/>
@@ -23975,7 +23975,7 @@
       <c r="Y681" s="2"/>
       <c r="Z681" s="2"/>
     </row>
-    <row r="682" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A682" s="16"/>
       <c r="B682" s="17"/>
       <c r="C682" s="36"/>
@@ -24003,7 +24003,7 @@
       <c r="Y682" s="2"/>
       <c r="Z682" s="2"/>
     </row>
-    <row r="683" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A683" s="16"/>
       <c r="B683" s="17"/>
       <c r="C683" s="36"/>
@@ -24031,7 +24031,7 @@
       <c r="Y683" s="2"/>
       <c r="Z683" s="2"/>
     </row>
-    <row r="684" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A684" s="16"/>
       <c r="B684" s="17"/>
       <c r="C684" s="36"/>
@@ -24059,7 +24059,7 @@
       <c r="Y684" s="2"/>
       <c r="Z684" s="2"/>
     </row>
-    <row r="685" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A685" s="16"/>
       <c r="B685" s="17"/>
       <c r="C685" s="36"/>
@@ -24087,7 +24087,7 @@
       <c r="Y685" s="2"/>
       <c r="Z685" s="2"/>
     </row>
-    <row r="686" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A686" s="16"/>
       <c r="B686" s="17"/>
       <c r="C686" s="36"/>
@@ -24115,7 +24115,7 @@
       <c r="Y686" s="2"/>
       <c r="Z686" s="2"/>
     </row>
-    <row r="687" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A687" s="16"/>
       <c r="B687" s="17"/>
       <c r="C687" s="36"/>
@@ -24143,7 +24143,7 @@
       <c r="Y687" s="2"/>
       <c r="Z687" s="2"/>
     </row>
-    <row r="688" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A688" s="16"/>
       <c r="B688" s="17"/>
       <c r="C688" s="36"/>
@@ -24171,7 +24171,7 @@
       <c r="Y688" s="2"/>
       <c r="Z688" s="2"/>
     </row>
-    <row r="689" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A689" s="16"/>
       <c r="B689" s="17"/>
       <c r="C689" s="36"/>
@@ -24199,7 +24199,7 @@
       <c r="Y689" s="2"/>
       <c r="Z689" s="2"/>
     </row>
-    <row r="690" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A690" s="16"/>
       <c r="B690" s="17"/>
       <c r="C690" s="36"/>
@@ -24227,7 +24227,7 @@
       <c r="Y690" s="2"/>
       <c r="Z690" s="2"/>
     </row>
-    <row r="691" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A691" s="16"/>
       <c r="B691" s="17"/>
       <c r="C691" s="36"/>
@@ -24255,7 +24255,7 @@
       <c r="Y691" s="2"/>
       <c r="Z691" s="2"/>
     </row>
-    <row r="692" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A692" s="16"/>
       <c r="B692" s="17"/>
       <c r="C692" s="36"/>
@@ -24283,7 +24283,7 @@
       <c r="Y692" s="2"/>
       <c r="Z692" s="2"/>
     </row>
-    <row r="693" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A693" s="16"/>
       <c r="B693" s="17"/>
       <c r="C693" s="36"/>
@@ -24311,7 +24311,7 @@
       <c r="Y693" s="2"/>
       <c r="Z693" s="2"/>
     </row>
-    <row r="694" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A694" s="16"/>
       <c r="B694" s="17"/>
       <c r="C694" s="36"/>
@@ -24339,7 +24339,7 @@
       <c r="Y694" s="2"/>
       <c r="Z694" s="2"/>
     </row>
-    <row r="695" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A695" s="16"/>
       <c r="B695" s="17"/>
       <c r="C695" s="36"/>
@@ -24367,7 +24367,7 @@
       <c r="Y695" s="2"/>
       <c r="Z695" s="2"/>
     </row>
-    <row r="696" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A696" s="16"/>
       <c r="B696" s="17"/>
       <c r="C696" s="36"/>
@@ -24395,7 +24395,7 @@
       <c r="Y696" s="2"/>
       <c r="Z696" s="2"/>
     </row>
-    <row r="697" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A697" s="16"/>
       <c r="B697" s="17"/>
       <c r="C697" s="36"/>
@@ -24423,7 +24423,7 @@
       <c r="Y697" s="2"/>
       <c r="Z697" s="2"/>
     </row>
-    <row r="698" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A698" s="16"/>
       <c r="B698" s="17"/>
       <c r="C698" s="36"/>
@@ -24451,7 +24451,7 @@
       <c r="Y698" s="2"/>
       <c r="Z698" s="2"/>
     </row>
-    <row r="699" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A699" s="16"/>
       <c r="B699" s="17"/>
       <c r="C699" s="36"/>
@@ -24479,7 +24479,7 @@
       <c r="Y699" s="2"/>
       <c r="Z699" s="2"/>
     </row>
-    <row r="700" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A700" s="16"/>
       <c r="B700" s="17"/>
       <c r="C700" s="36"/>
@@ -24507,7 +24507,7 @@
       <c r="Y700" s="2"/>
       <c r="Z700" s="2"/>
     </row>
-    <row r="701" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A701" s="16"/>
       <c r="B701" s="17"/>
       <c r="C701" s="36"/>
@@ -24535,7 +24535,7 @@
       <c r="Y701" s="2"/>
       <c r="Z701" s="2"/>
     </row>
-    <row r="702" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A702" s="16"/>
       <c r="B702" s="17"/>
       <c r="C702" s="36"/>
@@ -24563,7 +24563,7 @@
       <c r="Y702" s="2"/>
       <c r="Z702" s="2"/>
     </row>
-    <row r="703" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A703" s="16"/>
       <c r="B703" s="17"/>
       <c r="C703" s="36"/>
@@ -24591,7 +24591,7 @@
       <c r="Y703" s="2"/>
       <c r="Z703" s="2"/>
     </row>
-    <row r="704" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A704" s="16"/>
       <c r="B704" s="17"/>
       <c r="C704" s="36"/>
@@ -24619,7 +24619,7 @@
       <c r="Y704" s="2"/>
       <c r="Z704" s="2"/>
     </row>
-    <row r="705" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A705" s="16"/>
       <c r="B705" s="17"/>
       <c r="C705" s="36"/>
@@ -24647,7 +24647,7 @@
       <c r="Y705" s="2"/>
       <c r="Z705" s="2"/>
     </row>
-    <row r="706" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A706" s="16"/>
       <c r="B706" s="17"/>
       <c r="C706" s="36"/>
@@ -24675,7 +24675,7 @@
       <c r="Y706" s="2"/>
       <c r="Z706" s="2"/>
     </row>
-    <row r="707" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A707" s="16"/>
       <c r="B707" s="17"/>
       <c r="C707" s="36"/>
@@ -24703,7 +24703,7 @@
       <c r="Y707" s="2"/>
       <c r="Z707" s="2"/>
     </row>
-    <row r="708" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A708" s="16"/>
       <c r="B708" s="17"/>
       <c r="C708" s="36"/>
@@ -24731,7 +24731,7 @@
       <c r="Y708" s="2"/>
       <c r="Z708" s="2"/>
     </row>
-    <row r="709" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A709" s="16"/>
       <c r="B709" s="17"/>
       <c r="C709" s="36"/>
@@ -24759,7 +24759,7 @@
       <c r="Y709" s="2"/>
       <c r="Z709" s="2"/>
     </row>
-    <row r="710" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A710" s="16"/>
       <c r="B710" s="17"/>
       <c r="C710" s="36"/>
@@ -24787,7 +24787,7 @@
       <c r="Y710" s="2"/>
       <c r="Z710" s="2"/>
     </row>
-    <row r="711" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A711" s="16"/>
       <c r="B711" s="17"/>
       <c r="C711" s="36"/>
@@ -24815,7 +24815,7 @@
       <c r="Y711" s="2"/>
       <c r="Z711" s="2"/>
     </row>
-    <row r="712" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A712" s="16"/>
       <c r="B712" s="17"/>
       <c r="C712" s="36"/>
@@ -24843,7 +24843,7 @@
       <c r="Y712" s="2"/>
       <c r="Z712" s="2"/>
     </row>
-    <row r="713" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A713" s="16"/>
       <c r="B713" s="17"/>
       <c r="C713" s="36"/>
@@ -24871,7 +24871,7 @@
       <c r="Y713" s="2"/>
       <c r="Z713" s="2"/>
     </row>
-    <row r="714" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A714" s="16"/>
       <c r="B714" s="17"/>
       <c r="C714" s="36"/>
@@ -24899,7 +24899,7 @@
       <c r="Y714" s="2"/>
       <c r="Z714" s="2"/>
     </row>
-    <row r="715" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A715" s="16"/>
       <c r="B715" s="17"/>
       <c r="C715" s="36"/>
@@ -24927,7 +24927,7 @@
       <c r="Y715" s="2"/>
       <c r="Z715" s="2"/>
     </row>
-    <row r="716" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A716" s="16"/>
       <c r="B716" s="17"/>
       <c r="C716" s="36"/>
@@ -24955,7 +24955,7 @@
       <c r="Y716" s="2"/>
       <c r="Z716" s="2"/>
     </row>
-    <row r="717" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A717" s="16"/>
       <c r="B717" s="17"/>
       <c r="C717" s="36"/>
@@ -24983,7 +24983,7 @@
       <c r="Y717" s="2"/>
       <c r="Z717" s="2"/>
     </row>
-    <row r="718" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A718" s="16"/>
       <c r="B718" s="17"/>
       <c r="C718" s="36"/>
@@ -25011,7 +25011,7 @@
       <c r="Y718" s="2"/>
       <c r="Z718" s="2"/>
     </row>
-    <row r="719" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A719" s="16"/>
       <c r="B719" s="17"/>
       <c r="C719" s="36"/>
@@ -25039,7 +25039,7 @@
       <c r="Y719" s="2"/>
       <c r="Z719" s="2"/>
     </row>
-    <row r="720" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A720" s="16"/>
       <c r="B720" s="17"/>
       <c r="C720" s="36"/>
@@ -25067,7 +25067,7 @@
       <c r="Y720" s="2"/>
       <c r="Z720" s="2"/>
     </row>
-    <row r="721" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A721" s="16"/>
       <c r="B721" s="17"/>
       <c r="C721" s="36"/>
@@ -25095,7 +25095,7 @@
       <c r="Y721" s="2"/>
       <c r="Z721" s="2"/>
     </row>
-    <row r="722" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A722" s="16"/>
       <c r="B722" s="17"/>
       <c r="C722" s="36"/>
@@ -25123,7 +25123,7 @@
       <c r="Y722" s="2"/>
       <c r="Z722" s="2"/>
     </row>
-    <row r="723" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A723" s="16"/>
       <c r="B723" s="17"/>
       <c r="C723" s="36"/>
@@ -25151,7 +25151,7 @@
       <c r="Y723" s="2"/>
       <c r="Z723" s="2"/>
     </row>
-    <row r="724" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A724" s="16"/>
       <c r="B724" s="17"/>
       <c r="C724" s="36"/>
@@ -25179,7 +25179,7 @@
       <c r="Y724" s="2"/>
       <c r="Z724" s="2"/>
     </row>
-    <row r="725" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A725" s="16"/>
       <c r="B725" s="17"/>
       <c r="C725" s="36"/>
@@ -25207,7 +25207,7 @@
       <c r="Y725" s="2"/>
       <c r="Z725" s="2"/>
     </row>
-    <row r="726" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A726" s="16"/>
       <c r="B726" s="17"/>
       <c r="C726" s="36"/>
@@ -25235,7 +25235,7 @@
       <c r="Y726" s="2"/>
       <c r="Z726" s="2"/>
     </row>
-    <row r="727" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A727" s="16"/>
       <c r="B727" s="17"/>
       <c r="C727" s="36"/>
@@ -25263,7 +25263,7 @@
       <c r="Y727" s="2"/>
       <c r="Z727" s="2"/>
     </row>
-    <row r="728" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A728" s="16"/>
       <c r="B728" s="17"/>
       <c r="C728" s="36"/>
@@ -25291,7 +25291,7 @@
       <c r="Y728" s="2"/>
       <c r="Z728" s="2"/>
     </row>
-    <row r="729" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A729" s="16"/>
       <c r="B729" s="17"/>
       <c r="C729" s="36"/>
@@ -25319,7 +25319,7 @@
       <c r="Y729" s="2"/>
       <c r="Z729" s="2"/>
     </row>
-    <row r="730" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A730" s="16"/>
       <c r="B730" s="17"/>
       <c r="C730" s="36"/>
@@ -25347,7 +25347,7 @@
       <c r="Y730" s="2"/>
       <c r="Z730" s="2"/>
     </row>
-    <row r="731" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A731" s="16"/>
       <c r="B731" s="17"/>
       <c r="C731" s="36"/>
@@ -25375,7 +25375,7 @@
       <c r="Y731" s="2"/>
       <c r="Z731" s="2"/>
     </row>
-    <row r="732" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A732" s="16"/>
       <c r="B732" s="17"/>
       <c r="C732" s="36"/>
@@ -25403,7 +25403,7 @@
       <c r="Y732" s="2"/>
       <c r="Z732" s="2"/>
     </row>
-    <row r="733" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A733" s="16"/>
       <c r="B733" s="17"/>
       <c r="C733" s="36"/>
@@ -25431,7 +25431,7 @@
       <c r="Y733" s="2"/>
       <c r="Z733" s="2"/>
     </row>
-    <row r="734" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A734" s="16"/>
       <c r="B734" s="17"/>
       <c r="C734" s="36"/>
@@ -25459,7 +25459,7 @@
       <c r="Y734" s="2"/>
       <c r="Z734" s="2"/>
     </row>
-    <row r="735" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A735" s="16"/>
       <c r="B735" s="17"/>
       <c r="C735" s="36"/>
@@ -25487,7 +25487,7 @@
       <c r="Y735" s="2"/>
       <c r="Z735" s="2"/>
     </row>
-    <row r="736" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A736" s="16"/>
       <c r="B736" s="17"/>
       <c r="C736" s="36"/>
@@ -25515,7 +25515,7 @@
       <c r="Y736" s="2"/>
       <c r="Z736" s="2"/>
     </row>
-    <row r="737" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A737" s="16"/>
       <c r="B737" s="17"/>
       <c r="C737" s="36"/>
@@ -25543,7 +25543,7 @@
       <c r="Y737" s="2"/>
       <c r="Z737" s="2"/>
     </row>
-    <row r="738" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A738" s="16"/>
       <c r="B738" s="17"/>
       <c r="C738" s="36"/>
@@ -25571,7 +25571,7 @@
       <c r="Y738" s="2"/>
       <c r="Z738" s="2"/>
     </row>
-    <row r="739" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A739" s="16"/>
       <c r="B739" s="17"/>
       <c r="C739" s="36"/>
@@ -25599,7 +25599,7 @@
       <c r="Y739" s="2"/>
       <c r="Z739" s="2"/>
     </row>
-    <row r="740" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A740" s="16"/>
       <c r="B740" s="17"/>
       <c r="C740" s="36"/>
@@ -25627,7 +25627,7 @@
       <c r="Y740" s="2"/>
       <c r="Z740" s="2"/>
     </row>
-    <row r="741" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A741" s="16"/>
       <c r="B741" s="17"/>
       <c r="C741" s="36"/>
@@ -25655,7 +25655,7 @@
       <c r="Y741" s="2"/>
       <c r="Z741" s="2"/>
     </row>
-    <row r="742" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A742" s="16"/>
       <c r="B742" s="17"/>
       <c r="C742" s="36"/>
@@ -25683,7 +25683,7 @@
       <c r="Y742" s="2"/>
       <c r="Z742" s="2"/>
     </row>
-    <row r="743" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A743" s="16"/>
       <c r="B743" s="17"/>
       <c r="C743" s="36"/>
@@ -25711,7 +25711,7 @@
       <c r="Y743" s="2"/>
       <c r="Z743" s="2"/>
     </row>
-    <row r="744" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A744" s="16"/>
       <c r="B744" s="17"/>
       <c r="C744" s="36"/>
@@ -25739,7 +25739,7 @@
       <c r="Y744" s="2"/>
       <c r="Z744" s="2"/>
     </row>
-    <row r="745" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A745" s="16"/>
       <c r="B745" s="17"/>
       <c r="C745" s="36"/>
@@ -25767,7 +25767,7 @@
       <c r="Y745" s="2"/>
       <c r="Z745" s="2"/>
     </row>
-    <row r="746" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A746" s="16"/>
       <c r="B746" s="17"/>
       <c r="C746" s="36"/>
@@ -25795,7 +25795,7 @@
       <c r="Y746" s="2"/>
       <c r="Z746" s="2"/>
     </row>
-    <row r="747" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A747" s="16"/>
       <c r="B747" s="17"/>
       <c r="C747" s="36"/>
@@ -25823,7 +25823,7 @@
       <c r="Y747" s="2"/>
       <c r="Z747" s="2"/>
     </row>
-    <row r="748" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A748" s="16"/>
       <c r="B748" s="17"/>
       <c r="C748" s="36"/>
@@ -25851,7 +25851,7 @@
       <c r="Y748" s="2"/>
       <c r="Z748" s="2"/>
     </row>
-    <row r="749" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A749" s="16"/>
       <c r="B749" s="17"/>
       <c r="C749" s="36"/>
@@ -25879,7 +25879,7 @@
       <c r="Y749" s="2"/>
       <c r="Z749" s="2"/>
     </row>
-    <row r="750" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A750" s="16"/>
       <c r="B750" s="17"/>
       <c r="C750" s="36"/>
@@ -25907,7 +25907,7 @@
       <c r="Y750" s="2"/>
       <c r="Z750" s="2"/>
     </row>
-    <row r="751" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A751" s="16"/>
       <c r="B751" s="17"/>
       <c r="C751" s="36"/>
@@ -25935,7 +25935,7 @@
       <c r="Y751" s="2"/>
       <c r="Z751" s="2"/>
     </row>
-    <row r="752" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A752" s="16"/>
       <c r="B752" s="17"/>
       <c r="C752" s="36"/>
@@ -25963,7 +25963,7 @@
       <c r="Y752" s="2"/>
       <c r="Z752" s="2"/>
     </row>
-    <row r="753" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A753" s="16"/>
       <c r="B753" s="17"/>
       <c r="C753" s="36"/>
@@ -25991,7 +25991,7 @@
       <c r="Y753" s="2"/>
       <c r="Z753" s="2"/>
     </row>
-    <row r="754" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A754" s="16"/>
       <c r="B754" s="17"/>
       <c r="C754" s="36"/>
@@ -26019,7 +26019,7 @@
       <c r="Y754" s="2"/>
       <c r="Z754" s="2"/>
     </row>
-    <row r="755" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A755" s="16"/>
       <c r="B755" s="17"/>
       <c r="C755" s="36"/>
@@ -26047,7 +26047,7 @@
       <c r="Y755" s="2"/>
       <c r="Z755" s="2"/>
     </row>
-    <row r="756" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A756" s="16"/>
       <c r="B756" s="17"/>
       <c r="C756" s="36"/>
@@ -26075,7 +26075,7 @@
       <c r="Y756" s="2"/>
       <c r="Z756" s="2"/>
     </row>
-    <row r="757" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A757" s="16"/>
       <c r="B757" s="17"/>
       <c r="C757" s="36"/>
@@ -26103,7 +26103,7 @@
       <c r="Y757" s="2"/>
       <c r="Z757" s="2"/>
     </row>
-    <row r="758" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A758" s="16"/>
       <c r="B758" s="17"/>
       <c r="C758" s="36"/>
@@ -26131,7 +26131,7 @@
       <c r="Y758" s="2"/>
       <c r="Z758" s="2"/>
     </row>
-    <row r="759" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A759" s="16"/>
       <c r="B759" s="17"/>
       <c r="C759" s="36"/>
@@ -26159,7 +26159,7 @@
       <c r="Y759" s="2"/>
       <c r="Z759" s="2"/>
     </row>
-    <row r="760" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A760" s="16"/>
       <c r="B760" s="17"/>
       <c r="C760" s="36"/>
@@ -26187,7 +26187,7 @@
       <c r="Y760" s="2"/>
       <c r="Z760" s="2"/>
     </row>
-    <row r="761" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A761" s="16"/>
       <c r="B761" s="17"/>
       <c r="C761" s="36"/>
@@ -26215,7 +26215,7 @@
       <c r="Y761" s="2"/>
       <c r="Z761" s="2"/>
     </row>
-    <row r="762" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A762" s="16"/>
       <c r="B762" s="17"/>
       <c r="C762" s="36"/>
@@ -26243,7 +26243,7 @@
       <c r="Y762" s="2"/>
       <c r="Z762" s="2"/>
     </row>
-    <row r="763" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A763" s="16"/>
       <c r="B763" s="17"/>
       <c r="C763" s="36"/>
@@ -26271,7 +26271,7 @@
       <c r="Y763" s="2"/>
       <c r="Z763" s="2"/>
     </row>
-    <row r="764" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A764" s="16"/>
       <c r="B764" s="17"/>
       <c r="C764" s="36"/>
@@ -26299,7 +26299,7 @@
       <c r="Y764" s="2"/>
       <c r="Z764" s="2"/>
     </row>
-    <row r="765" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A765" s="16"/>
       <c r="B765" s="17"/>
       <c r="C765" s="36"/>
@@ -26327,7 +26327,7 @@
       <c r="Y765" s="2"/>
       <c r="Z765" s="2"/>
     </row>
-    <row r="766" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A766" s="16"/>
       <c r="B766" s="17"/>
       <c r="C766" s="36"/>
@@ -26355,7 +26355,7 @@
       <c r="Y766" s="2"/>
       <c r="Z766" s="2"/>
     </row>
-    <row r="767" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A767" s="16"/>
       <c r="B767" s="17"/>
       <c r="C767" s="36"/>
@@ -26383,7 +26383,7 @@
       <c r="Y767" s="2"/>
       <c r="Z767" s="2"/>
     </row>
-    <row r="768" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A768" s="16"/>
       <c r="B768" s="17"/>
       <c r="C768" s="36"/>
@@ -26411,7 +26411,7 @@
       <c r="Y768" s="2"/>
       <c r="Z768" s="2"/>
     </row>
-    <row r="769" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A769" s="16"/>
       <c r="B769" s="17"/>
       <c r="C769" s="36"/>
@@ -26439,7 +26439,7 @@
       <c r="Y769" s="2"/>
       <c r="Z769" s="2"/>
     </row>
-    <row r="770" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A770" s="16"/>
       <c r="B770" s="17"/>
       <c r="C770" s="36"/>
@@ -26467,7 +26467,7 @@
       <c r="Y770" s="2"/>
       <c r="Z770" s="2"/>
     </row>
-    <row r="771" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A771" s="16"/>
       <c r="B771" s="17"/>
       <c r="C771" s="36"/>
@@ -26495,7 +26495,7 @@
       <c r="Y771" s="2"/>
       <c r="Z771" s="2"/>
     </row>
-    <row r="772" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A772" s="16"/>
       <c r="B772" s="17"/>
       <c r="C772" s="36"/>
@@ -26523,7 +26523,7 @@
       <c r="Y772" s="2"/>
       <c r="Z772" s="2"/>
     </row>
-    <row r="773" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A773" s="16"/>
       <c r="B773" s="17"/>
       <c r="C773" s="36"/>
@@ -26551,7 +26551,7 @@
       <c r="Y773" s="2"/>
       <c r="Z773" s="2"/>
     </row>
-    <row r="774" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A774" s="16"/>
       <c r="B774" s="17"/>
       <c r="C774" s="36"/>
@@ -26579,7 +26579,7 @@
       <c r="Y774" s="2"/>
       <c r="Z774" s="2"/>
     </row>
-    <row r="775" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A775" s="16"/>
       <c r="B775" s="17"/>
       <c r="C775" s="36"/>
@@ -26607,7 +26607,7 @@
       <c r="Y775" s="2"/>
       <c r="Z775" s="2"/>
     </row>
-    <row r="776" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A776" s="16"/>
       <c r="B776" s="17"/>
       <c r="C776" s="36"/>
@@ -26635,7 +26635,7 @@
       <c r="Y776" s="2"/>
       <c r="Z776" s="2"/>
     </row>
-    <row r="777" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A777" s="16"/>
       <c r="B777" s="17"/>
       <c r="C777" s="36"/>
@@ -26663,7 +26663,7 @@
       <c r="Y777" s="2"/>
       <c r="Z777" s="2"/>
     </row>
-    <row r="778" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A778" s="16"/>
       <c r="B778" s="17"/>
       <c r="C778" s="36"/>
@@ -26691,7 +26691,7 @@
       <c r="Y778" s="2"/>
       <c r="Z778" s="2"/>
     </row>
-    <row r="779" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A779" s="16"/>
       <c r="B779" s="17"/>
       <c r="C779" s="36"/>
@@ -26719,7 +26719,7 @@
       <c r="Y779" s="2"/>
       <c r="Z779" s="2"/>
     </row>
-    <row r="780" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A780" s="16"/>
       <c r="B780" s="17"/>
       <c r="C780" s="36"/>
@@ -26747,7 +26747,7 @@
       <c r="Y780" s="2"/>
       <c r="Z780" s="2"/>
     </row>
-    <row r="781" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A781" s="16"/>
       <c r="B781" s="17"/>
       <c r="C781" s="36"/>
@@ -26775,7 +26775,7 @@
       <c r="Y781" s="2"/>
       <c r="Z781" s="2"/>
     </row>
-    <row r="782" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A782" s="16"/>
       <c r="B782" s="17"/>
       <c r="C782" s="36"/>
@@ -26803,7 +26803,7 @@
       <c r="Y782" s="2"/>
       <c r="Z782" s="2"/>
     </row>
-    <row r="783" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A783" s="16"/>
       <c r="B783" s="17"/>
       <c r="C783" s="36"/>
@@ -26831,7 +26831,7 @@
       <c r="Y783" s="2"/>
       <c r="Z783" s="2"/>
     </row>
-    <row r="784" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A784" s="16"/>
       <c r="B784" s="17"/>
       <c r="C784" s="36"/>
@@ -26859,7 +26859,7 @@
       <c r="Y784" s="2"/>
       <c r="Z784" s="2"/>
     </row>
-    <row r="785" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A785" s="16"/>
       <c r="B785" s="17"/>
       <c r="C785" s="36"/>
@@ -26887,7 +26887,7 @@
       <c r="Y785" s="2"/>
       <c r="Z785" s="2"/>
     </row>
-    <row r="786" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A786" s="16"/>
       <c r="B786" s="17"/>
       <c r="C786" s="36"/>
@@ -26915,7 +26915,7 @@
       <c r="Y786" s="2"/>
       <c r="Z786" s="2"/>
     </row>
-    <row r="787" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A787" s="16"/>
       <c r="B787" s="17"/>
       <c r="C787" s="36"/>
@@ -26943,7 +26943,7 @@
       <c r="Y787" s="2"/>
       <c r="Z787" s="2"/>
     </row>
-    <row r="788" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A788" s="16"/>
       <c r="B788" s="17"/>
       <c r="C788" s="36"/>
@@ -26971,7 +26971,7 @@
       <c r="Y788" s="2"/>
       <c r="Z788" s="2"/>
     </row>
-    <row r="789" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A789" s="16"/>
       <c r="B789" s="17"/>
       <c r="C789" s="36"/>
@@ -26999,7 +26999,7 @@
       <c r="Y789" s="2"/>
       <c r="Z789" s="2"/>
     </row>
-    <row r="790" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A790" s="16"/>
       <c r="B790" s="17"/>
       <c r="C790" s="36"/>
@@ -27027,7 +27027,7 @@
       <c r="Y790" s="2"/>
       <c r="Z790" s="2"/>
     </row>
-    <row r="791" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A791" s="16"/>
       <c r="B791" s="17"/>
       <c r="C791" s="36"/>
@@ -27055,7 +27055,7 @@
       <c r="Y791" s="2"/>
       <c r="Z791" s="2"/>
     </row>
-    <row r="792" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A792" s="16"/>
       <c r="B792" s="17"/>
       <c r="C792" s="36"/>
@@ -27083,7 +27083,7 @@
       <c r="Y792" s="2"/>
       <c r="Z792" s="2"/>
     </row>
-    <row r="793" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A793" s="16"/>
       <c r="B793" s="17"/>
       <c r="C793" s="36"/>
@@ -27111,7 +27111,7 @@
       <c r="Y793" s="2"/>
       <c r="Z793" s="2"/>
     </row>
-    <row r="794" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A794" s="16"/>
       <c r="B794" s="17"/>
       <c r="C794" s="36"/>
@@ -27139,7 +27139,7 @@
       <c r="Y794" s="2"/>
       <c r="Z794" s="2"/>
     </row>
-    <row r="795" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A795" s="16"/>
       <c r="B795" s="17"/>
       <c r="C795" s="36"/>
@@ -27167,7 +27167,7 @@
       <c r="Y795" s="2"/>
       <c r="Z795" s="2"/>
     </row>
-    <row r="796" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A796" s="16"/>
       <c r="B796" s="17"/>
       <c r="C796" s="36"/>
@@ -27195,7 +27195,7 @@
       <c r="Y796" s="2"/>
       <c r="Z796" s="2"/>
     </row>
-    <row r="797" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A797" s="16"/>
       <c r="B797" s="17"/>
       <c r="C797" s="36"/>
@@ -27223,7 +27223,7 @@
       <c r="Y797" s="2"/>
       <c r="Z797" s="2"/>
     </row>
-    <row r="798" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A798" s="16"/>
       <c r="B798" s="17"/>
       <c r="C798" s="36"/>
@@ -27251,7 +27251,7 @@
       <c r="Y798" s="2"/>
       <c r="Z798" s="2"/>
     </row>
-    <row r="799" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A799" s="16"/>
       <c r="B799" s="17"/>
       <c r="C799" s="36"/>
@@ -27279,7 +27279,7 @@
       <c r="Y799" s="2"/>
       <c r="Z799" s="2"/>
     </row>
-    <row r="800" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A800" s="16"/>
       <c r="B800" s="17"/>
       <c r="C800" s="36"/>
@@ -27307,7 +27307,7 @@
       <c r="Y800" s="2"/>
       <c r="Z800" s="2"/>
     </row>
-    <row r="801" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A801" s="16"/>
       <c r="B801" s="17"/>
       <c r="C801" s="36"/>
@@ -27335,7 +27335,7 @@
       <c r="Y801" s="2"/>
       <c r="Z801" s="2"/>
     </row>
-    <row r="802" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A802" s="16"/>
       <c r="B802" s="17"/>
       <c r="C802" s="36"/>
@@ -27363,7 +27363,7 @@
       <c r="Y802" s="2"/>
       <c r="Z802" s="2"/>
     </row>
-    <row r="803" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A803" s="16"/>
       <c r="B803" s="17"/>
       <c r="C803" s="36"/>
@@ -27391,7 +27391,7 @@
       <c r="Y803" s="2"/>
       <c r="Z803" s="2"/>
     </row>
-    <row r="804" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A804" s="16"/>
       <c r="B804" s="17"/>
       <c r="C804" s="36"/>
@@ -27419,7 +27419,7 @@
       <c r="Y804" s="2"/>
       <c r="Z804" s="2"/>
     </row>
-    <row r="805" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A805" s="16"/>
       <c r="B805" s="17"/>
       <c r="C805" s="36"/>
@@ -27447,7 +27447,7 @@
       <c r="Y805" s="2"/>
       <c r="Z805" s="2"/>
     </row>
-    <row r="806" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A806" s="16"/>
       <c r="B806" s="17"/>
       <c r="C806" s="36"/>
@@ -27475,7 +27475,7 @@
       <c r="Y806" s="2"/>
       <c r="Z806" s="2"/>
     </row>
-    <row r="807" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A807" s="16"/>
       <c r="B807" s="17"/>
       <c r="C807" s="36"/>
@@ -27503,7 +27503,7 @@
       <c r="Y807" s="2"/>
       <c r="Z807" s="2"/>
     </row>
-    <row r="808" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A808" s="16"/>
       <c r="B808" s="17"/>
       <c r="C808" s="36"/>
@@ -27531,7 +27531,7 @@
       <c r="Y808" s="2"/>
       <c r="Z808" s="2"/>
     </row>
-    <row r="809" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A809" s="16"/>
       <c r="B809" s="17"/>
       <c r="C809" s="36"/>
@@ -27559,7 +27559,7 @@
       <c r="Y809" s="2"/>
       <c r="Z809" s="2"/>
     </row>
-    <row r="810" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A810" s="16"/>
       <c r="B810" s="17"/>
       <c r="C810" s="36"/>
@@ -27587,7 +27587,7 @@
       <c r="Y810" s="2"/>
       <c r="Z810" s="2"/>
     </row>
-    <row r="811" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A811" s="16"/>
       <c r="B811" s="17"/>
       <c r="C811" s="36"/>
@@ -27615,7 +27615,7 @@
       <c r="Y811" s="2"/>
       <c r="Z811" s="2"/>
     </row>
-    <row r="812" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A812" s="16"/>
       <c r="B812" s="17"/>
       <c r="C812" s="36"/>
@@ -27643,7 +27643,7 @@
       <c r="Y812" s="2"/>
       <c r="Z812" s="2"/>
     </row>
-    <row r="813" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A813" s="16"/>
       <c r="B813" s="17"/>
       <c r="C813" s="36"/>
@@ -27671,7 +27671,7 @@
       <c r="Y813" s="2"/>
       <c r="Z813" s="2"/>
     </row>
-    <row r="814" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A814" s="16"/>
       <c r="B814" s="17"/>
       <c r="C814" s="36"/>
@@ -27699,7 +27699,7 @@
       <c r="Y814" s="2"/>
       <c r="Z814" s="2"/>
     </row>
-    <row r="815" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A815" s="16"/>
       <c r="B815" s="17"/>
       <c r="C815" s="36"/>
@@ -27727,7 +27727,7 @@
       <c r="Y815" s="2"/>
       <c r="Z815" s="2"/>
     </row>
-    <row r="816" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A816" s="16"/>
       <c r="B816" s="17"/>
       <c r="C816" s="36"/>
@@ -27755,7 +27755,7 @@
       <c r="Y816" s="2"/>
       <c r="Z816" s="2"/>
     </row>
-    <row r="817" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A817" s="16"/>
       <c r="B817" s="17"/>
       <c r="C817" s="36"/>
@@ -27783,7 +27783,7 @@
       <c r="Y817" s="2"/>
       <c r="Z817" s="2"/>
     </row>
-    <row r="818" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A818" s="16"/>
       <c r="B818" s="17"/>
       <c r="C818" s="36"/>
@@ -27811,7 +27811,7 @@
       <c r="Y818" s="2"/>
       <c r="Z818" s="2"/>
     </row>
-    <row r="819" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A819" s="16"/>
       <c r="B819" s="17"/>
       <c r="C819" s="36"/>
@@ -27839,7 +27839,7 @@
       <c r="Y819" s="2"/>
       <c r="Z819" s="2"/>
     </row>
-    <row r="820" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A820" s="16"/>
       <c r="B820" s="17"/>
       <c r="C820" s="36"/>
@@ -27867,7 +27867,7 @@
       <c r="Y820" s="2"/>
       <c r="Z820" s="2"/>
     </row>
-    <row r="821" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A821" s="16"/>
       <c r="B821" s="17"/>
       <c r="C821" s="36"/>
@@ -27895,7 +27895,7 @@
       <c r="Y821" s="2"/>
       <c r="Z821" s="2"/>
     </row>
-    <row r="822" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A822" s="16"/>
       <c r="B822" s="17"/>
       <c r="C822" s="36"/>
@@ -27923,7 +27923,7 @@
       <c r="Y822" s="2"/>
       <c r="Z822" s="2"/>
     </row>
-    <row r="823" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A823" s="16"/>
       <c r="B823" s="17"/>
       <c r="C823" s="36"/>
@@ -27951,7 +27951,7 @@
       <c r="Y823" s="2"/>
       <c r="Z823" s="2"/>
     </row>
-    <row r="824" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A824" s="16"/>
       <c r="B824" s="17"/>
       <c r="C824" s="36"/>
@@ -27979,7 +27979,7 @@
       <c r="Y824" s="2"/>
       <c r="Z824" s="2"/>
     </row>
-    <row r="825" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A825" s="16"/>
       <c r="B825" s="17"/>
       <c r="C825" s="36"/>
@@ -28007,7 +28007,7 @@
       <c r="Y825" s="2"/>
       <c r="Z825" s="2"/>
     </row>
-    <row r="826" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A826" s="16"/>
       <c r="B826" s="17"/>
       <c r="C826" s="36"/>
@@ -28035,7 +28035,7 @@
       <c r="Y826" s="2"/>
       <c r="Z826" s="2"/>
     </row>
-    <row r="827" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A827" s="16"/>
       <c r="B827" s="17"/>
       <c r="C827" s="36"/>
@@ -28063,7 +28063,7 @@
       <c r="Y827" s="2"/>
       <c r="Z827" s="2"/>
     </row>
-    <row r="828" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A828" s="16"/>
       <c r="B828" s="17"/>
       <c r="C828" s="36"/>
@@ -28091,7 +28091,7 @@
       <c r="Y828" s="2"/>
       <c r="Z828" s="2"/>
     </row>
-    <row r="829" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A829" s="16"/>
       <c r="B829" s="17"/>
       <c r="C829" s="36"/>
@@ -28119,7 +28119,7 @@
       <c r="Y829" s="2"/>
       <c r="Z829" s="2"/>
     </row>
-    <row r="830" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A830" s="16"/>
       <c r="B830" s="17"/>
       <c r="C830" s="36"/>
@@ -28147,7 +28147,7 @@
       <c r="Y830" s="2"/>
       <c r="Z830" s="2"/>
     </row>
-    <row r="831" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A831" s="16"/>
       <c r="B831" s="17"/>
       <c r="C831" s="36"/>
@@ -28175,7 +28175,7 @@
       <c r="Y831" s="2"/>
       <c r="Z831" s="2"/>
     </row>
-    <row r="832" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A832" s="16"/>
       <c r="B832" s="17"/>
       <c r="C832" s="36"/>
@@ -28203,7 +28203,7 @@
       <c r="Y832" s="2"/>
       <c r="Z832" s="2"/>
     </row>
-    <row r="833" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A833" s="16"/>
       <c r="B833" s="17"/>
       <c r="C833" s="36"/>
@@ -28231,7 +28231,7 @@
       <c r="Y833" s="2"/>
       <c r="Z833" s="2"/>
     </row>
-    <row r="834" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A834" s="16"/>
       <c r="B834" s="17"/>
       <c r="C834" s="36"/>
@@ -28259,7 +28259,7 @@
       <c r="Y834" s="2"/>
       <c r="Z834" s="2"/>
     </row>
-    <row r="835" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A835" s="16"/>
       <c r="B835" s="17"/>
       <c r="C835" s="36"/>
@@ -28287,7 +28287,7 @@
       <c r="Y835" s="2"/>
       <c r="Z835" s="2"/>
     </row>
-    <row r="836" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A836" s="16"/>
       <c r="B836" s="17"/>
       <c r="C836" s="36"/>
@@ -28315,7 +28315,7 @@
       <c r="Y836" s="2"/>
       <c r="Z836" s="2"/>
     </row>
-    <row r="837" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A837" s="16"/>
       <c r="B837" s="17"/>
       <c r="C837" s="36"/>
@@ -28343,7 +28343,7 @@
       <c r="Y837" s="2"/>
       <c r="Z837" s="2"/>
     </row>
-    <row r="838" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A838" s="16"/>
       <c r="B838" s="17"/>
       <c r="C838" s="36"/>
@@ -28371,7 +28371,7 @@
       <c r="Y838" s="2"/>
       <c r="Z838" s="2"/>
     </row>
-    <row r="839" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A839" s="16"/>
       <c r="B839" s="17"/>
       <c r="C839" s="36"/>
@@ -28399,7 +28399,7 @@
       <c r="Y839" s="2"/>
       <c r="Z839" s="2"/>
     </row>
-    <row r="840" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A840" s="16"/>
       <c r="B840" s="17"/>
       <c r="C840" s="36"/>
@@ -28427,7 +28427,7 @@
       <c r="Y840" s="2"/>
       <c r="Z840" s="2"/>
     </row>
-    <row r="841" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A841" s="16"/>
       <c r="B841" s="17"/>
       <c r="C841" s="36"/>
@@ -28455,7 +28455,7 @@
       <c r="Y841" s="2"/>
       <c r="Z841" s="2"/>
     </row>
-    <row r="842" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A842" s="16"/>
       <c r="B842" s="17"/>
       <c r="C842" s="36"/>
@@ -28483,7 +28483,7 @@
       <c r="Y842" s="2"/>
       <c r="Z842" s="2"/>
     </row>
-    <row r="843" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A843" s="16"/>
       <c r="B843" s="17"/>
       <c r="C843" s="36"/>
@@ -28511,7 +28511,7 @@
       <c r="Y843" s="2"/>
       <c r="Z843" s="2"/>
     </row>
-    <row r="844" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A844" s="16"/>
       <c r="B844" s="17"/>
       <c r="C844" s="36"/>
@@ -28539,7 +28539,7 @@
       <c r="Y844" s="2"/>
       <c r="Z844" s="2"/>
     </row>
-    <row r="845" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A845" s="16"/>
       <c r="B845" s="17"/>
       <c r="C845" s="36"/>
@@ -28567,7 +28567,7 @@
       <c r="Y845" s="2"/>
       <c r="Z845" s="2"/>
     </row>
-    <row r="846" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A846" s="16"/>
       <c r="B846" s="17"/>
       <c r="C846" s="36"/>
@@ -28595,7 +28595,7 @@
       <c r="Y846" s="2"/>
       <c r="Z846" s="2"/>
     </row>
-    <row r="847" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A847" s="16"/>
       <c r="B847" s="17"/>
       <c r="C847" s="36"/>
@@ -28623,7 +28623,7 @@
       <c r="Y847" s="2"/>
       <c r="Z847" s="2"/>
     </row>
-    <row r="848" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A848" s="16"/>
       <c r="B848" s="17"/>
       <c r="C848" s="36"/>
@@ -28651,7 +28651,7 @@
       <c r="Y848" s="2"/>
       <c r="Z848" s="2"/>
     </row>
-    <row r="849" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A849" s="16"/>
       <c r="B849" s="17"/>
       <c r="C849" s="36"/>
@@ -28679,7 +28679,7 @@
       <c r="Y849" s="2"/>
       <c r="Z849" s="2"/>
     </row>
-    <row r="850" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A850" s="16"/>
       <c r="B850" s="17"/>
       <c r="C850" s="36"/>
@@ -28707,7 +28707,7 @@
       <c r="Y850" s="2"/>
       <c r="Z850" s="2"/>
     </row>
-    <row r="851" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A851" s="16"/>
       <c r="B851" s="17"/>
       <c r="C851" s="36"/>
@@ -28735,7 +28735,7 @@
       <c r="Y851" s="2"/>
       <c r="Z851" s="2"/>
     </row>
-    <row r="852" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A852" s="16"/>
       <c r="B852" s="17"/>
       <c r="C852" s="36"/>
@@ -28763,7 +28763,7 @@
       <c r="Y852" s="2"/>
       <c r="Z852" s="2"/>
     </row>
-    <row r="853" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A853" s="16"/>
       <c r="B853" s="17"/>
       <c r="C853" s="36"/>
@@ -28791,7 +28791,7 @@
       <c r="Y853" s="2"/>
       <c r="Z853" s="2"/>
     </row>
-    <row r="854" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A854" s="16"/>
       <c r="B854" s="17"/>
       <c r="C854" s="36"/>
@@ -28819,7 +28819,7 @@
       <c r="Y854" s="2"/>
       <c r="Z854" s="2"/>
     </row>
-    <row r="855" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A855" s="16"/>
       <c r="B855" s="17"/>
       <c r="C855" s="36"/>
@@ -28847,7 +28847,7 @@
       <c r="Y855" s="2"/>
       <c r="Z855" s="2"/>
     </row>
-    <row r="856" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A856" s="16"/>
       <c r="B856" s="17"/>
       <c r="C856" s="36"/>
@@ -28875,7 +28875,7 @@
       <c r="Y856" s="2"/>
       <c r="Z856" s="2"/>
     </row>
-    <row r="857" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A857" s="16"/>
       <c r="B857" s="17"/>
       <c r="C857" s="36"/>
@@ -28903,7 +28903,7 @@
       <c r="Y857" s="2"/>
       <c r="Z857" s="2"/>
     </row>
-    <row r="858" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A858" s="16"/>
       <c r="B858" s="17"/>
       <c r="C858" s="36"/>
@@ -28931,7 +28931,7 @@
       <c r="Y858" s="2"/>
       <c r="Z858" s="2"/>
     </row>
-    <row r="859" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A859" s="16"/>
       <c r="B859" s="17"/>
       <c r="C859" s="36"/>
@@ -28959,7 +28959,7 @@
       <c r="Y859" s="2"/>
       <c r="Z859" s="2"/>
     </row>
-    <row r="860" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A860" s="16"/>
       <c r="B860" s="17"/>
       <c r="C860" s="36"/>
@@ -28987,7 +28987,7 @@
       <c r="Y860" s="2"/>
       <c r="Z860" s="2"/>
     </row>
-    <row r="861" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A861" s="16"/>
       <c r="B861" s="17"/>
       <c r="C861" s="36"/>
@@ -29015,7 +29015,7 @@
       <c r="Y861" s="2"/>
       <c r="Z861" s="2"/>
     </row>
-    <row r="862" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A862" s="16"/>
       <c r="B862" s="17"/>
       <c r="C862" s="36"/>
@@ -29043,7 +29043,7 @@
       <c r="Y862" s="2"/>
       <c r="Z862" s="2"/>
     </row>
-    <row r="863" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A863" s="16"/>
       <c r="B863" s="17"/>
       <c r="C863" s="36"/>
@@ -29071,7 +29071,7 @@
       <c r="Y863" s="2"/>
       <c r="Z863" s="2"/>
     </row>
-    <row r="864" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A864" s="16"/>
       <c r="B864" s="17"/>
       <c r="C864" s="36"/>
@@ -29099,7 +29099,7 @@
       <c r="Y864" s="2"/>
       <c r="Z864" s="2"/>
     </row>
-    <row r="865" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A865" s="16"/>
       <c r="B865" s="17"/>
       <c r="C865" s="36"/>
@@ -29127,7 +29127,7 @@
       <c r="Y865" s="2"/>
       <c r="Z865" s="2"/>
     </row>
-    <row r="866" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A866" s="16"/>
       <c r="B866" s="17"/>
       <c r="C866" s="36"/>
@@ -29155,7 +29155,7 @@
       <c r="Y866" s="2"/>
       <c r="Z866" s="2"/>
     </row>
-    <row r="867" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A867" s="16"/>
       <c r="B867" s="17"/>
       <c r="C867" s="36"/>
@@ -29183,7 +29183,7 @@
       <c r="Y867" s="2"/>
       <c r="Z867" s="2"/>
     </row>
-    <row r="868" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A868" s="16"/>
       <c r="B868" s="17"/>
       <c r="C868" s="36"/>
@@ -29211,7 +29211,7 @@
       <c r="Y868" s="2"/>
       <c r="Z868" s="2"/>
     </row>
-    <row r="869" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A869" s="16"/>
       <c r="B869" s="17"/>
       <c r="C869" s="36"/>
@@ -29239,7 +29239,7 @@
       <c r="Y869" s="2"/>
       <c r="Z869" s="2"/>
     </row>
-    <row r="870" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A870" s="16"/>
       <c r="B870" s="17"/>
       <c r="C870" s="36"/>
@@ -29267,7 +29267,7 @@
       <c r="Y870" s="2"/>
       <c r="Z870" s="2"/>
     </row>
-    <row r="871" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A871" s="16"/>
       <c r="B871" s="17"/>
       <c r="C871" s="36"/>
@@ -29295,7 +29295,7 @@
       <c r="Y871" s="2"/>
       <c r="Z871" s="2"/>
     </row>
-    <row r="872" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A872" s="16"/>
       <c r="B872" s="17"/>
       <c r="C872" s="36"/>
@@ -29323,7 +29323,7 @@
       <c r="Y872" s="2"/>
       <c r="Z872" s="2"/>
     </row>
-    <row r="873" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A873" s="16"/>
       <c r="B873" s="17"/>
       <c r="C873" s="36"/>
@@ -29351,7 +29351,7 @@
       <c r="Y873" s="2"/>
       <c r="Z873" s="2"/>
     </row>
-    <row r="874" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A874" s="16"/>
       <c r="B874" s="17"/>
       <c r="C874" s="36"/>
@@ -29379,7 +29379,7 @@
       <c r="Y874" s="2"/>
       <c r="Z874" s="2"/>
     </row>
-    <row r="875" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A875" s="16"/>
       <c r="B875" s="17"/>
       <c r="C875" s="36"/>
@@ -29407,7 +29407,7 @@
       <c r="Y875" s="2"/>
       <c r="Z875" s="2"/>
     </row>
-    <row r="876" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A876" s="16"/>
       <c r="B876" s="17"/>
       <c r="C876" s="36"/>
@@ -29435,7 +29435,7 @@
       <c r="Y876" s="2"/>
       <c r="Z876" s="2"/>
     </row>
-    <row r="877" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A877" s="16"/>
       <c r="B877" s="17"/>
       <c r="C877" s="36"/>
@@ -29463,7 +29463,7 @@
       <c r="Y877" s="2"/>
       <c r="Z877" s="2"/>
     </row>
-    <row r="878" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A878" s="16"/>
       <c r="B878" s="17"/>
       <c r="C878" s="36"/>
@@ -29491,7 +29491,7 @@
       <c r="Y878" s="2"/>
       <c r="Z878" s="2"/>
     </row>
-    <row r="879" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A879" s="16"/>
       <c r="B879" s="17"/>
       <c r="C879" s="36"/>
@@ -29519,7 +29519,7 @@
       <c r="Y879" s="2"/>
       <c r="Z879" s="2"/>
     </row>
-    <row r="880" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A880" s="16"/>
       <c r="B880" s="17"/>
       <c r="C880" s="36"/>
@@ -29547,7 +29547,7 @@
       <c r="Y880" s="2"/>
       <c r="Z880" s="2"/>
     </row>
-    <row r="881" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A881" s="16"/>
       <c r="B881" s="17"/>
       <c r="C881" s="36"/>
@@ -29575,7 +29575,7 @@
       <c r="Y881" s="2"/>
       <c r="Z881" s="2"/>
     </row>
-    <row r="882" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A882" s="16"/>
       <c r="B882" s="17"/>
       <c r="C882" s="36"/>
@@ -29603,7 +29603,7 @@
       <c r="Y882" s="2"/>
       <c r="Z882" s="2"/>
     </row>
-    <row r="883" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A883" s="16"/>
       <c r="B883" s="17"/>
       <c r="C883" s="36"/>
@@ -29631,7 +29631,7 @@
       <c r="Y883" s="2"/>
       <c r="Z883" s="2"/>
     </row>
-    <row r="884" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A884" s="16"/>
       <c r="B884" s="17"/>
       <c r="C884" s="36"/>
@@ -29659,7 +29659,7 @@
       <c r="Y884" s="2"/>
       <c r="Z884" s="2"/>
     </row>
-    <row r="885" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A885" s="16"/>
       <c r="B885" s="17"/>
       <c r="C885" s="36"/>
@@ -29687,7 +29687,7 @@
       <c r="Y885" s="2"/>
       <c r="Z885" s="2"/>
     </row>
-    <row r="886" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A886" s="16"/>
       <c r="B886" s="17"/>
       <c r="C886" s="36"/>
@@ -29715,7 +29715,7 @@
       <c r="Y886" s="2"/>
       <c r="Z886" s="2"/>
     </row>
-    <row r="887" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A887" s="16"/>
       <c r="B887" s="17"/>
       <c r="C887" s="36"/>
@@ -29743,7 +29743,7 @@
       <c r="Y887" s="2"/>
       <c r="Z887" s="2"/>
     </row>
-    <row r="888" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A888" s="16"/>
       <c r="B888" s="17"/>
       <c r="C888" s="36"/>
@@ -29771,7 +29771,7 @@
       <c r="Y888" s="2"/>
       <c r="Z888" s="2"/>
     </row>
-    <row r="889" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A889" s="16"/>
       <c r="B889" s="17"/>
       <c r="C889" s="36"/>
@@ -29799,7 +29799,7 @@
       <c r="Y889" s="2"/>
       <c r="Z889" s="2"/>
     </row>
-    <row r="890" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A890" s="16"/>
       <c r="B890" s="17"/>
       <c r="C890" s="36"/>
@@ -29827,7 +29827,7 @@
       <c r="Y890" s="2"/>
       <c r="Z890" s="2"/>
     </row>
-    <row r="891" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A891" s="16"/>
       <c r="B891" s="17"/>
       <c r="C891" s="36"/>
@@ -29855,7 +29855,7 @@
       <c r="Y891" s="2"/>
       <c r="Z891" s="2"/>
     </row>
-    <row r="892" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A892" s="16"/>
       <c r="B892" s="17"/>
       <c r="C892" s="36"/>
@@ -29883,7 +29883,7 @@
       <c r="Y892" s="2"/>
       <c r="Z892" s="2"/>
     </row>
-    <row r="893" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A893" s="16"/>
       <c r="B893" s="17"/>
       <c r="C893" s="36"/>
@@ -29911,7 +29911,7 @@
       <c r="Y893" s="2"/>
       <c r="Z893" s="2"/>
     </row>
-    <row r="894" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A894" s="16"/>
       <c r="B894" s="17"/>
       <c r="C894" s="36"/>
@@ -29939,7 +29939,7 @@
       <c r="Y894" s="2"/>
       <c r="Z894" s="2"/>
     </row>
-    <row r="895" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A895" s="16"/>
       <c r="B895" s="17"/>
       <c r="C895" s="36"/>
@@ -29967,7 +29967,7 @@
       <c r="Y895" s="2"/>
       <c r="Z895" s="2"/>
     </row>
-    <row r="896" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A896" s="16"/>
       <c r="B896" s="17"/>
       <c r="C896" s="36"/>
@@ -29995,7 +29995,7 @@
       <c r="Y896" s="2"/>
       <c r="Z896" s="2"/>
     </row>
-    <row r="897" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A897" s="16"/>
       <c r="B897" s="17"/>
       <c r="C897" s="36"/>
@@ -30023,7 +30023,7 @@
       <c r="Y897" s="2"/>
       <c r="Z897" s="2"/>
     </row>
-    <row r="898" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A898" s="16"/>
       <c r="B898" s="17"/>
       <c r="C898" s="36"/>
@@ -30051,7 +30051,7 @@
       <c r="Y898" s="2"/>
       <c r="Z898" s="2"/>
     </row>
-    <row r="899" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A899" s="16"/>
       <c r="B899" s="17"/>
       <c r="C899" s="36"/>
@@ -30079,7 +30079,7 @@
       <c r="Y899" s="2"/>
       <c r="Z899" s="2"/>
     </row>
-    <row r="900" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A900" s="16"/>
       <c r="B900" s="17"/>
       <c r="C900" s="36"/>
@@ -30107,7 +30107,7 @@
       <c r="Y900" s="2"/>
       <c r="Z900" s="2"/>
     </row>
-    <row r="901" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A901" s="16"/>
       <c r="B901" s="17"/>
       <c r="C901" s="36"/>
@@ -30135,7 +30135,7 @@
       <c r="Y901" s="2"/>
       <c r="Z901" s="2"/>
     </row>
-    <row r="902" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A902" s="16"/>
       <c r="B902" s="17"/>
       <c r="C902" s="36"/>
@@ -30163,7 +30163,7 @@
       <c r="Y902" s="2"/>
       <c r="Z902" s="2"/>
     </row>
-    <row r="903" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A903" s="16"/>
       <c r="B903" s="17"/>
       <c r="C903" s="36"/>
@@ -30191,7 +30191,7 @@
       <c r="Y903" s="2"/>
       <c r="Z903" s="2"/>
     </row>
-    <row r="904" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A904" s="16"/>
       <c r="B904" s="17"/>
       <c r="C904" s="36"/>
@@ -30219,7 +30219,7 @@
       <c r="Y904" s="2"/>
       <c r="Z904" s="2"/>
     </row>
-    <row r="905" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A905" s="16"/>
       <c r="B905" s="17"/>
       <c r="C905" s="36"/>
@@ -30247,7 +30247,7 @@
       <c r="Y905" s="2"/>
       <c r="Z905" s="2"/>
     </row>
-    <row r="906" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A906" s="16"/>
       <c r="B906" s="17"/>
       <c r="C906" s="36"/>
@@ -30275,7 +30275,7 @@
       <c r="Y906" s="2"/>
       <c r="Z906" s="2"/>
     </row>
-    <row r="907" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A907" s="16"/>
       <c r="B907" s="17"/>
       <c r="C907" s="36"/>
@@ -30303,7 +30303,7 @@
       <c r="Y907" s="2"/>
       <c r="Z907" s="2"/>
     </row>
-    <row r="908" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A908" s="16"/>
       <c r="B908" s="17"/>
       <c r="C908" s="36"/>
@@ -30331,7 +30331,7 @@
       <c r="Y908" s="2"/>
       <c r="Z908" s="2"/>
     </row>
-    <row r="909" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A909" s="16"/>
       <c r="B909" s="17"/>
       <c r="C909" s="36"/>
@@ -30359,7 +30359,7 @@
       <c r="Y909" s="2"/>
       <c r="Z909" s="2"/>
     </row>
-    <row r="910" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A910" s="16"/>
       <c r="B910" s="17"/>
       <c r="C910" s="36"/>
@@ -30387,7 +30387,7 @@
       <c r="Y910" s="2"/>
       <c r="Z910" s="2"/>
     </row>
-    <row r="911" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A911" s="16"/>
       <c r="B911" s="17"/>
       <c r="C911" s="36"/>
@@ -30415,7 +30415,7 @@
       <c r="Y911" s="2"/>
       <c r="Z911" s="2"/>
     </row>
-    <row r="912" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A912" s="16"/>
       <c r="B912" s="17"/>
       <c r="C912" s="36"/>
@@ -30443,7 +30443,7 @@
       <c r="Y912" s="2"/>
       <c r="Z912" s="2"/>
     </row>
-    <row r="913" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A913" s="16"/>
       <c r="B913" s="17"/>
       <c r="C913" s="36"/>
@@ -30471,7 +30471,7 @@
       <c r="Y913" s="2"/>
       <c r="Z913" s="2"/>
     </row>
-    <row r="914" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A914" s="16"/>
       <c r="B914" s="17"/>
       <c r="C914" s="36"/>
@@ -30499,7 +30499,7 @@
       <c r="Y914" s="2"/>
       <c r="Z914" s="2"/>
     </row>
-    <row r="915" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A915" s="16"/>
       <c r="B915" s="17"/>
       <c r="C915" s="36"/>
@@ -30527,7 +30527,7 @@
       <c r="Y915" s="2"/>
       <c r="Z915" s="2"/>
     </row>
-    <row r="916" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A916" s="16"/>
       <c r="B916" s="17"/>
       <c r="C916" s="36"/>
@@ -30555,7 +30555,7 @@
       <c r="Y916" s="2"/>
       <c r="Z916" s="2"/>
     </row>
-    <row r="917" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A917" s="16"/>
       <c r="B917" s="17"/>
       <c r="C917" s="36"/>
@@ -30583,7 +30583,7 @@
       <c r="Y917" s="2"/>
       <c r="Z917" s="2"/>
     </row>
-    <row r="918" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A918" s="16"/>
       <c r="B918" s="17"/>
       <c r="C918" s="36"/>
@@ -30611,7 +30611,7 @@
       <c r="Y918" s="2"/>
       <c r="Z918" s="2"/>
     </row>
-    <row r="919" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A919" s="16"/>
       <c r="B919" s="17"/>
       <c r="C919" s="36"/>
@@ -30641,21 +30641,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AF1B22C3-B8EE-4520-A29B-D72C2F9DF42C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A8CCA5CD-AF7D-4B4E-914E-0AC58190EB15}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{B15FDF9E-10BA-4822-98A3-2333D572403D}"/>
+      <autoFilter ref="A293:C332" xr:uid="{E3C532CE-497E-4A13-807A-F40066E7B1A7}"/>
+    </customSheetView>
+    <customSheetView guid="{DC8CE150-FB6B-499E-B0F3-285E26AC2C79}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{63244250-89A2-4B15-A620-3AE928B23C3B}"/>
     </customSheetView>
     <customSheetView guid="{58B874E0-02BB-451B-88BF-92F62B1BD2F4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{F2C9B778-7BBD-47E8-960E-65260A6FA0D2}"/>
+      <autoFilter ref="A11:D37" xr:uid="{B2BEDC33-1D80-44DD-981D-33A44815991C}"/>
     </customSheetView>
-    <customSheetView guid="{DC8CE150-FB6B-499E-B0F3-285E26AC2C79}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AF1B22C3-B8EE-4520-A29B-D72C2F9DF42C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{E36DC2D7-CD27-4DBB-AFB4-9BB131ED13EA}"/>
-    </customSheetView>
-    <customSheetView guid="{A8CCA5CD-AF7D-4B4E-914E-0AC58190EB15}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{378568CB-8136-4AD4-A371-359C3D207AAC}"/>
+      <autoFilter ref="A11:C37" xr:uid="{5BC436CC-31E0-4566-A744-EB0F06368066}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -31064,36 +31064,36 @@
     <col min="3" max="3" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+    </row>
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -31102,7 +31102,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -31111,7 +31111,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
@@ -31120,7 +31120,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -31136,7 +31136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>63</v>
       </c>
@@ -31147,7 +31147,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>128</v>
       </c>
@@ -31155,7 +31155,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>128</v>
       </c>
@@ -31163,7 +31163,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>128</v>
       </c>
@@ -31171,7 +31171,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>128</v>
       </c>
@@ -31179,7 +31179,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
         <v>128</v>
       </c>
@@ -31187,7 +31187,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
         <v>128</v>
       </c>
@@ -31195,7 +31195,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>128</v>
       </c>
@@ -31203,7 +31203,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>171</v>
       </c>
@@ -31211,7 +31211,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>171</v>
       </c>
@@ -31219,15 +31219,15 @@
         <v>669</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="38"/>
       <c r="B26" s="14"/>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="38"/>
       <c r="B27" s="14"/>
     </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>205</v>
       </c>
@@ -31235,7 +31235,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>205</v>
       </c>
@@ -31243,7 +31243,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>205</v>
       </c>
@@ -31251,7 +31251,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>205</v>
       </c>
@@ -31259,7 +31259,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>205</v>
       </c>
@@ -31267,15 +31267,15 @@
         <v>674</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="38"/>
       <c r="B33" s="14"/>
     </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="38"/>
       <c r="B34" s="14"/>
     </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>255</v>
       </c>
@@ -31283,7 +31283,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>255</v>
       </c>
@@ -31291,7 +31291,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>255</v>
       </c>
@@ -31299,7 +31299,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>255</v>
       </c>
@@ -31307,7 +31307,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>303</v>
       </c>
@@ -31315,7 +31315,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>303</v>
       </c>
@@ -31323,11 +31323,11 @@
         <v>680</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="38"/>
       <c r="B44" s="14"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>336</v>
       </c>
@@ -31335,7 +31335,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>336</v>
       </c>
@@ -31343,15 +31343,15 @@
         <v>682</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="38"/>
       <c r="B47" s="14"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="38"/>
       <c r="B48" s="14"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>396</v>
       </c>
@@ -31359,15 +31359,15 @@
         <v>683</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="38"/>
       <c r="B50" s="14"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="38"/>
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>431</v>
       </c>
@@ -31375,7 +31375,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>431</v>
       </c>
@@ -31383,7 +31383,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>431</v>
       </c>
@@ -31391,7 +31391,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>431</v>
       </c>
@@ -31399,7 +31399,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>431</v>
       </c>
@@ -31407,15 +31407,15 @@
         <v>688</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="38"/>
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="38"/>
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>476</v>
       </c>
@@ -31423,7 +31423,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>476</v>
       </c>
@@ -31431,7 +31431,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>476</v>
       </c>
@@ -31439,15 +31439,15 @@
         <v>333</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="38"/>
       <c r="B62" s="12"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="38"/>
       <c r="B63" s="12"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>553</v>
       </c>
@@ -31455,7 +31455,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>553</v>
       </c>
@@ -31463,7 +31463,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>553</v>
       </c>
@@ -31471,7 +31471,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>553</v>
       </c>
@@ -31479,7 +31479,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>553</v>
       </c>
@@ -31487,7 +31487,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>553</v>
       </c>
@@ -31495,7 +31495,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>553</v>
       </c>
@@ -31503,7 +31503,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>553</v>
       </c>
